--- a/public/templates/NHWA_Module_5.xlsx
+++ b/public/templates/NHWA_Module_5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\NHWA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\NHWA\Originals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568ED9E5-4E0F-4374-A05A-BC597CA8D6E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45940A1B-BC03-446D-8609-640A55972FB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D8NLvK0a2zIADanhZ9TwvH5vsYkmadwkU44pHflONSE2WP8HiyNEmpWYSjEZss1+UZ+xu9L5Oen+ioj0nOts3g==" workbookSaltValue="X5E0+xThdEGqXq8WVwCqrQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="836">
   <si>
     <t xml:space="preserve">NATIONAL  HEALTH WORKFORCE ACCOUNTS DATA </t>
   </si>
@@ -2810,6 +2810,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2838,7 +2839,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -3265,7 +3265,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CB266"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -3280,11 +3280,12 @@
     <col min="8" max="9" width="12.7109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="24.5703125" style="4" customWidth="1"/>
     <col min="11" max="12" width="14.28515625" style="4" customWidth="1"/>
-    <col min="13" max="17" width="9.140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="12" style="4" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="4" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="12" style="4" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="12.140625" style="4" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="24" max="35" width="9.140625" style="4" hidden="1" customWidth="1"/>
@@ -3293,25 +3294,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="29" t="s">
         <v>835</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -3338,22 +3339,22 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>764</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -3531,11 +3532,11 @@
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
       <c r="AA6" s="4" t="s">
         <v>109</v>
       </c>
@@ -3562,33 +3563,33 @@
       </c>
     </row>
     <row r="7" spans="1:33" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="32" t="s">
         <v>750</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="34" t="s">
         <v>751</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="36" t="s">
         <v>752</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="33" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="34" t="s">
         <v>753</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="36" t="s">
         <v>754</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="33" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="34" t="s">
         <v>755</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="36" t="s">
         <v>756</v>
       </c>
-      <c r="L7" s="36"/>
+      <c r="L7" s="37"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="16"/>
@@ -3622,23 +3623,23 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="34"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="34"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="21" t="s">
         <v>10</v>
       </c>
@@ -10613,7 +10614,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="inLRJbx2w4Oa9EXnraj0Dq5FGu0MUX/U1VEMfUtYy7mg/Hzs+TVb/2OI5jh1C6AGYxYweQGBgbPCmFtamgVdVg==" saltValue="E6NVbNrsqpHX1RyyU98L7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="I59ROVBstQo5MFLl7seOlwH97/8trwXUUwg/j8hrzmDt4hwT+gWPi2GFb6pjGOZjwM+bFz7qyb4hSAVWakYqIw==" saltValue="i+4wjmCbRDAe0olRhH+r5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="12">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
@@ -10697,38 +10698,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>764</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
       <c r="O2" s="12" t="e">
         <f>'Entry into Labour Market'!X2</f>
         <v>#N/A</v>
@@ -10784,57 +10785,57 @@
       <c r="O6" s="12"/>
     </row>
     <row r="7" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>750</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="36" t="s">
         <v>762</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="33" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="34" t="s">
         <v>757</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="36" t="s">
         <v>758</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="33" t="s">
+      <c r="J7" s="37"/>
+      <c r="K7" s="34" t="s">
         <v>763</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="36" t="s">
         <v>763</v>
       </c>
-      <c r="M7" s="36"/>
+      <c r="M7" s="37"/>
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="34"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="23" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="34"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="23" t="s">
         <v>10</v>
       </c>

--- a/public/templates/NHWA_Module_5.xlsx
+++ b/public/templates/NHWA_Module_5.xlsx
@@ -5,19 +5,330 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\NHWA\Originals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Final friday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45940A1B-BC03-446D-8609-640A55972FB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D8NLvK0a2zIADanhZ9TwvH5vsYkmadwkU44pHflONSE2WP8HiyNEmpWYSjEZss1+UZ+xu9L5Oen+ioj0nOts3g==" workbookSaltValue="X5E0+xThdEGqXq8WVwCqrQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16000429-239F-4947-A907-92A3555BECEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="/y4ghdQw5zDY5X50A28ptgXKUL+3gINxHaPzRAT3UvCy3Mhtj2Nn1XnCn3ZsJhxSGmva6EifantWL4pkil1V9Q==" workbookSaltValue="Ce2toa42FyzKbcOufOQKlA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entry into Labour Market" sheetId="1" r:id="rId1"/>
     <sheet name="Exit from Labour Market" sheetId="2" r:id="rId2"/>
+    <sheet name="Validation" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Metadata" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_a0Tb0vzKk1m">Metadata!$C$93</definedName>
+    <definedName name="_aBpbcEgtzgw">Metadata!$C$30</definedName>
+    <definedName name="_ACalScnrl2I">Metadata!$C$174</definedName>
+    <definedName name="_Adzexk8xbzD">Metadata!$C$309</definedName>
+    <definedName name="_aeGGK8bRvmr">Metadata!$C$18</definedName>
+    <definedName name="_AFIorEPU00q">Metadata!$C$95</definedName>
+    <definedName name="_AJBfDthkySs">Metadata!$C$84</definedName>
+    <definedName name="_AjeCGGb8H76">Metadata!$C$78</definedName>
+    <definedName name="_Ajnw1b8m6eL">Metadata!$C$187</definedName>
+    <definedName name="_ALBRKpJsddQ">Metadata!$C$32</definedName>
+    <definedName name="_aNIrqpwcKXv">Metadata!$C$288</definedName>
+    <definedName name="_apVWLKfARpb">Metadata!$C$150</definedName>
+    <definedName name="_AUStREIxT4s">Metadata!$C$148</definedName>
+    <definedName name="_av3fkpFxEXj">Metadata!$C$300</definedName>
+    <definedName name="_AYWCbVecRKQ">Metadata!$C$295</definedName>
+    <definedName name="_aZ7Bm5L90rn">Metadata!$C$238</definedName>
+    <definedName name="_AZdPnw0b1lm">Metadata!$C$53</definedName>
+    <definedName name="_AZqsANkZRnD">Metadata!$C$11</definedName>
+    <definedName name="_B4iWc3gcDcn">Metadata!$C$197</definedName>
+    <definedName name="_Bc3mYAhlY1a">Metadata!$C$154</definedName>
+    <definedName name="_bcy4159FETR">Metadata!$C$181</definedName>
+    <definedName name="_bGWaeVBrOcc">Metadata!$C$81</definedName>
+    <definedName name="_bhkJDAiqVKX">Metadata!$C$144</definedName>
+    <definedName name="_BlC8wOVHBlb">Metadata!$C$239</definedName>
+    <definedName name="_BLpPqpMtgQY">Metadata!$C$129</definedName>
+    <definedName name="_BmTVMvJHVBO">Metadata!$C$183</definedName>
+    <definedName name="_bnQX2QIuIY9">Metadata!$C$125</definedName>
+    <definedName name="_Bon3xyAAWKf">Metadata!$C$191</definedName>
+    <definedName name="_BOPZbzxOfSA">Metadata!$C$3</definedName>
+    <definedName name="_buSEeeViTo3">Metadata!$C$308</definedName>
+    <definedName name="_bvyjEfI0d2V">Metadata!$C$172</definedName>
+    <definedName name="_BVzmce6DVeS">Metadata!$C$138</definedName>
+    <definedName name="_c82mDnhUQly">Metadata!$C$72</definedName>
+    <definedName name="_cCgL3J7Lsgn">Metadata!$C$254</definedName>
+    <definedName name="_CCl7hAqlrmE">Metadata!$C$110</definedName>
+    <definedName name="_cfBaKMnsXd1">Metadata!$C$213</definedName>
+    <definedName name="_cJU4qStc9QT">Metadata!$C$274</definedName>
+    <definedName name="_COs48yLdDvg">Metadata!$C$205</definedName>
+    <definedName name="_cpmmPDsQ3uG">Metadata!$C$69</definedName>
+    <definedName name="_CpV0L0Y9i9h">Metadata!$C$44</definedName>
+    <definedName name="_cRWrIpjzvVl">Metadata!$C$142</definedName>
+    <definedName name="_CVlyw498LdE">Metadata!$C$23</definedName>
+    <definedName name="_cWrL45je7mw">Metadata!$C$54</definedName>
+    <definedName name="_cxfAcMbSZe1">Metadata!$C$28</definedName>
+    <definedName name="_cZ8823L0fLJ">Metadata!$C$194</definedName>
+    <definedName name="_D4JnxOsqwE4">Metadata!$C$175</definedName>
+    <definedName name="_DMyxTSpvKOp">Metadata!$C$26</definedName>
+    <definedName name="_dNLjKwsVjod">Metadata!$C$61</definedName>
+    <definedName name="_dpcvWc01CeN">Metadata!$C$74</definedName>
+    <definedName name="_dscgTvwyCw8">Metadata!$C$82</definedName>
+    <definedName name="_DVnpk4xiXGJ">Metadata!$C$262</definedName>
+    <definedName name="_DwYaOZuilM8">Metadata!$C$5</definedName>
+    <definedName name="_DzAOqCf0ots">Metadata!$C$66</definedName>
+    <definedName name="_E9G2aQpCs1A">Metadata!$C$135</definedName>
+    <definedName name="_e9IoKRAkYLO">Metadata!$C$57</definedName>
+    <definedName name="_EB4aSZN0eQr">Metadata!$C$190</definedName>
+    <definedName name="_EDHO4qOyY88">Metadata!$C$109</definedName>
+    <definedName name="_EGLpIMSAWhx">Metadata!$C$130</definedName>
+    <definedName name="_ehNfKt5LpG9">Metadata!$C$160</definedName>
+    <definedName name="_ek4BsT4iUo8">Metadata!$C$6</definedName>
+    <definedName name="_ElwEWppmGgv">Metadata!$C$162</definedName>
+    <definedName name="_er7MPiN3tdH">Metadata!$C$263</definedName>
+    <definedName name="_EubjsxqlA4d">Metadata!$C$185</definedName>
+    <definedName name="_eVEK7djdWqV">Metadata!$C$280</definedName>
+    <definedName name="_eVp1pvRfPKS">Metadata!$C$301</definedName>
+    <definedName name="_eyvitcZL4ex">Metadata!$C$139</definedName>
+    <definedName name="_f4ZFD2aswys">Metadata!$C$51</definedName>
+    <definedName name="_false">Metadata!$C$311</definedName>
+    <definedName name="_fg8TSIHSGHX">Metadata!$C$132</definedName>
+    <definedName name="_fGOgbIqsxDn">Metadata!$C$34</definedName>
+    <definedName name="_fHaKXfcKthe">Metadata!$C$224</definedName>
+    <definedName name="_fHXW26zg2U6">Metadata!$C$158</definedName>
+    <definedName name="_Fi5lLVwe1Th">Metadata!$C$117</definedName>
+    <definedName name="_fIlPGTXBCUm">Metadata!$C$306</definedName>
+    <definedName name="_fkrzFaeuYDn">Metadata!$C$299</definedName>
+    <definedName name="_FNduj2N3e8s">Metadata!$C$246</definedName>
+    <definedName name="_FOJUXD6f6lB">Metadata!$C$184</definedName>
+    <definedName name="_Fq9qs6Kn6wN">Metadata!$C$136</definedName>
+    <definedName name="_ftfTDf31OnN">Metadata!$C$4</definedName>
+    <definedName name="_FUieyovDec8">Metadata!$C$257</definedName>
+    <definedName name="_fYeClLy8K2x">Metadata!$C$278</definedName>
+    <definedName name="_G037PAPU5dO">Metadata!$C$182</definedName>
+    <definedName name="_G3thRWUQAX9">Metadata!$C$120</definedName>
+    <definedName name="_g49fuSiB623">Metadata!$C$153</definedName>
+    <definedName name="_G8FCnT37gyb">Metadata!$C$216</definedName>
+    <definedName name="_G9o5ad4oJJX">Metadata!$C$147</definedName>
+    <definedName name="_Gan3VYicAWe">Metadata!$C$199</definedName>
+    <definedName name="_gb7vWtO7Wjp">Metadata!$C$307</definedName>
+    <definedName name="_gg9DH7dvdeD">Metadata!$C$141</definedName>
+    <definedName name="_gMz0MxjZcEt">Metadata!$C$178</definedName>
+    <definedName name="_Gnz4lqrVEMf">Metadata!$C$289</definedName>
+    <definedName name="_GPyOOoIby8R">Metadata!$C$237</definedName>
+    <definedName name="_GrU8zQv510v">Metadata!$C$283</definedName>
+    <definedName name="_gvkPV8aqP39">Metadata!$C$8</definedName>
+    <definedName name="_Gvox4WmLiYC">Metadata!$C$292</definedName>
+    <definedName name="_GWQBgBHdbbp">Metadata!$C$166</definedName>
+    <definedName name="_gxi9jcBYyrL">Metadata!$C$173</definedName>
+    <definedName name="_h1S7GCkmvVn">Metadata!$C$19</definedName>
+    <definedName name="_HDN85xUGB65">Metadata!$C$270</definedName>
+    <definedName name="_HfVjCurKxh2">Metadata!$C$168</definedName>
+    <definedName name="_hG1CNbw8wSF">Metadata!$C$207</definedName>
+    <definedName name="_hgGOTFYZxMO">Metadata!$C$134</definedName>
+    <definedName name="_HizhPCC5Ps5">Metadata!$C$250</definedName>
+    <definedName name="_hmZE3mVAZFf">Metadata!$C$79</definedName>
+    <definedName name="_hpXoMVtJpT3">Metadata!$C$244</definedName>
+    <definedName name="_HwqfuL9pQz5">Metadata!$C$281</definedName>
+    <definedName name="_HX7fBSMCCbL">Metadata!$C$305</definedName>
+    <definedName name="_HYEuE8zV74t">Metadata!$C$242</definedName>
+    <definedName name="_I3NxIqG7bD4">Metadata!$C$210</definedName>
+    <definedName name="_i3v8r9XNls2">Metadata!$C$233</definedName>
+    <definedName name="_IbGbsybdeou">Metadata!$C$229</definedName>
+    <definedName name="_ibGsqmiVkoU">Metadata!$C$167</definedName>
+    <definedName name="_IFAb1JUZ0Fz">Metadata!$C$268</definedName>
+    <definedName name="_iFaKKDtb7nf">Metadata!$C$218</definedName>
+    <definedName name="_IjLnDADGraQ">Metadata!$C$265</definedName>
+    <definedName name="_iNT35p3jsEM">Metadata!$C$62</definedName>
+    <definedName name="_ipe4pT2TW7G">Metadata!$C$149</definedName>
+    <definedName name="_iWRW6jXAzvP">Metadata!$C$29</definedName>
+    <definedName name="_IZSm5iPKkDg">Metadata!$C$195</definedName>
+    <definedName name="_IZy3ESdFnp5">Metadata!$C$140</definedName>
+    <definedName name="_jCtFxm8aADJ">Metadata!$C$228</definedName>
+    <definedName name="_JEHwU064LAj">Metadata!$C$176</definedName>
+    <definedName name="_jFOZHDZpjPL">Metadata!$C$50</definedName>
+    <definedName name="_JI5lagoUJR4">Metadata!$C$164</definedName>
+    <definedName name="_JIr15Xt3EQn">Metadata!$C$115</definedName>
+    <definedName name="_jkyBvNzcTLl">Metadata!$C$266</definedName>
+    <definedName name="_jMGr96nGwHN">Metadata!$C$206</definedName>
+    <definedName name="_JQ5qF3mRCMe">Metadata!$C$68</definedName>
+    <definedName name="_juBxu3AprlM">Metadata!$C$303</definedName>
+    <definedName name="_jVqoXv7rFns">Metadata!$C$156</definedName>
+    <definedName name="_JX7HJfPfbog">Metadata!$C$196</definedName>
+    <definedName name="_jXQq22U4Y2e">Metadata!$C$96</definedName>
+    <definedName name="_jZOt27rWre8">Metadata!$C$151</definedName>
+    <definedName name="_JzvGfLYkX17">Metadata!$C$24</definedName>
+    <definedName name="_K5u7PTVJDz9">Metadata!$C$43</definedName>
+    <definedName name="_KAUSOoBq5Ft">Metadata!$C$192</definedName>
+    <definedName name="_kcoQHDRTi4E">Metadata!$C$7</definedName>
+    <definedName name="_KOUhvjWIy6V">Metadata!$C$294</definedName>
+    <definedName name="_kpFgAwwSjCZ">Metadata!$C$297</definedName>
+    <definedName name="_KqaTbKanCG3">Metadata!$C$211</definedName>
+    <definedName name="_KrU8C1YTdao">Metadata!$C$302</definedName>
+    <definedName name="_KwgjnBBpe5b">Metadata!$C$64</definedName>
+    <definedName name="_LAPR4Iu2NVS">Metadata!$C$114</definedName>
+    <definedName name="_lbMrRSBsXh3">Metadata!$C$101</definedName>
+    <definedName name="_LbWpsX1FJcC">Metadata!$C$56</definedName>
+    <definedName name="_lGN2n7pZ6Ua">Metadata!$C$92</definedName>
+    <definedName name="_LHbCtHlZr3Y">Metadata!$C$36</definedName>
+    <definedName name="_lKZR6UK0afN">Metadata!$C$55</definedName>
+    <definedName name="_lnvESj20mWZ">Metadata!$C$193</definedName>
+    <definedName name="_LTLHCOHyyWS">Metadata!$C$235</definedName>
+    <definedName name="_lVPoUAKCdmU">Metadata!$C$259</definedName>
+    <definedName name="_M9HrCkIwaKy">Metadata!$C$284</definedName>
+    <definedName name="_Mb9IYOFZYCv">Metadata!$C$104</definedName>
+    <definedName name="_mDSuyD9lOM5">Metadata!$C$152</definedName>
+    <definedName name="_mhWSEv79IJW">Metadata!$C$261</definedName>
+    <definedName name="_MJEntShoQVK">Metadata!$C$77</definedName>
+    <definedName name="_Mk7P920hkBa">Metadata!$C$116</definedName>
+    <definedName name="_mmJUi0PpvGi">Metadata!$C$180</definedName>
+    <definedName name="_mNa42CHbkO7">Metadata!$C$47</definedName>
+    <definedName name="_MPzyVWiSFF2">Metadata!$C$33</definedName>
+    <definedName name="_myv7amOYTHn">Metadata!$C$90</definedName>
+    <definedName name="_n8iofJiiX4T">Metadata!$C$71</definedName>
+    <definedName name="_N9i1v07Ro0E">Metadata!$C$232</definedName>
+    <definedName name="_ncopO2Sj2RB">Metadata!$C$38</definedName>
+    <definedName name="_ngUSWwX0Oby">Metadata!$C$123</definedName>
+    <definedName name="_NhuW760cOQG">Metadata!$C$106</definedName>
+    <definedName name="_Nlv8oKkoAwp">Metadata!$C$169</definedName>
+    <definedName name="_NNQYgAf2Cj8">Metadata!$C$13</definedName>
+    <definedName name="_Nrnay4JA8Ga">Metadata!$C$65</definedName>
+    <definedName name="_NUkOvK4bnj2">Metadata!$C$145</definedName>
+    <definedName name="_O0hWoXlHhIS">Metadata!$C$209</definedName>
+    <definedName name="_O7BGyJhV2Tc">Metadata!$C$212</definedName>
+    <definedName name="_OFXJXWnOG0R">Metadata!$C$108</definedName>
+    <definedName name="_OI5vu4jG4Rf">Metadata!$C$21</definedName>
+    <definedName name="_oofyLUJJ6Vy">Metadata!$C$45</definedName>
+    <definedName name="_oroMC4mMzMq">Metadata!$C$249</definedName>
+    <definedName name="_oWNF4d3PK8C">Metadata!$C$258</definedName>
+    <definedName name="_oy494aJtjTB">Metadata!$C$215</definedName>
+    <definedName name="_P9FK7e2Ngsz">Metadata!$C$14</definedName>
+    <definedName name="_pbH6bmcioGw">Metadata!$C$100</definedName>
+    <definedName name="_PevCwH17M73">Metadata!$C$226</definedName>
+    <definedName name="_PFAtPR87fHs">Metadata!$C$75</definedName>
+    <definedName name="_pfhvgmllA9M">Metadata!$C$52</definedName>
+    <definedName name="_pGLy2Zj2lVg">Metadata!$C$273</definedName>
+    <definedName name="_phnE76RjYz8">Metadata!$C$25</definedName>
+    <definedName name="_PJS910L8KtX">Metadata!$C$296</definedName>
+    <definedName name="_pL6jJhifUxq">Metadata!$C$42</definedName>
+    <definedName name="_pMukkUmnnkh">Metadata!$C$279</definedName>
+    <definedName name="_PpjdOoVUc7k">Metadata!$C$113</definedName>
+    <definedName name="_PRrdILmQQb3">Metadata!$C$122</definedName>
+    <definedName name="_PvrMV4NjbtR">Metadata!$C$304</definedName>
+    <definedName name="_PY4aKgi30fr">Metadata!$C$256</definedName>
+    <definedName name="_Pz0LCggcqES">Metadata!$C$202</definedName>
+    <definedName name="_pZZriU4sY0l">Metadata!$C$203</definedName>
+    <definedName name="_q23bFLr2E5D">Metadata!$C$89</definedName>
+    <definedName name="_q2HqXV5OO3z">Metadata!$C$269</definedName>
+    <definedName name="_Q8De2VxoKXS">Metadata!$C$291</definedName>
+    <definedName name="_q9u7nkNkuGy">Metadata!$C$143</definedName>
+    <definedName name="_qbqrFLCJewu">Metadata!$C$252</definedName>
+    <definedName name="_QkOClVdLto1">Metadata!$C$223</definedName>
+    <definedName name="_QLERXr2o7IE">Metadata!$C$128</definedName>
+    <definedName name="_qNRERx0Icjw">Metadata!$C$10</definedName>
+    <definedName name="_QqAzWHtJ8VC">Metadata!$C$264</definedName>
+    <definedName name="_qQBFc1FSZBd">Metadata!$C$12</definedName>
+    <definedName name="_QSpLidCdqMU">Metadata!$C$103</definedName>
+    <definedName name="_quQpOfBIDFC">Metadata!$C$146</definedName>
+    <definedName name="_rb6V38jgfFc">Metadata!$C$253</definedName>
+    <definedName name="_RDiXMdNXg16">Metadata!$C$255</definedName>
+    <definedName name="_rEQqufy2KNi">Metadata!$C$204</definedName>
+    <definedName name="_Ri2tb7LBVtP">Metadata!$C$133</definedName>
+    <definedName name="_Rmy6DbwekE1">Metadata!$C$49</definedName>
+    <definedName name="_RTdjvXHJdnH">Metadata!$C$97</definedName>
+    <definedName name="_rtLnlu4GUI2">Metadata!$C$201</definedName>
+    <definedName name="_RyAd6laKg3U">Metadata!$C$240</definedName>
+    <definedName name="_s1mzBU7YOaZ">Metadata!$C$112</definedName>
+    <definedName name="_S52uSY3lb8V">Metadata!$C$293</definedName>
+    <definedName name="_SAsS1Kwc4iW">Metadata!$C$245</definedName>
+    <definedName name="_sdNHn8qmokO">Metadata!$C$16</definedName>
+    <definedName name="_sF1LtVEqk6Y">Metadata!$C$20</definedName>
+    <definedName name="_sg5v6c9tCZ3">Metadata!$C$73</definedName>
+    <definedName name="_shRXArPWh8H">Metadata!$C$98</definedName>
+    <definedName name="_Snhh7MxvJ09">Metadata!$C$41</definedName>
+    <definedName name="_SnYHrnchKjL">Metadata!$C$286</definedName>
+    <definedName name="_SsAjVE1S87E">Metadata!$C$157</definedName>
+    <definedName name="_sSIYRwB1r74">Metadata!$C$124</definedName>
+    <definedName name="_SSzpjcForGt">Metadata!$C$17</definedName>
+    <definedName name="_ST86paYjRHP">Metadata!$C$58</definedName>
+    <definedName name="_sw0lh63wqsA">Metadata!$C$22</definedName>
+    <definedName name="_T1irZBQ9gNW">Metadata!$C$179</definedName>
+    <definedName name="_T7tKHiW1Db1">Metadata!$C$60</definedName>
+    <definedName name="_tDFavWinSwr">Metadata!$C$171</definedName>
+    <definedName name="_TIhakAVsQwM">Metadata!$C$186</definedName>
+    <definedName name="_TldYkeCwb5r">Metadata!$C$99</definedName>
+    <definedName name="_tnTRnfd2aVs">Metadata!$C$170</definedName>
+    <definedName name="_TpDwlm2Spev">Metadata!$C$290</definedName>
+    <definedName name="_Tr4i6jeDDqj">Metadata!$C$63</definedName>
+    <definedName name="_true">Metadata!$C$310</definedName>
+    <definedName name="_tSBEjAHKj9V">Metadata!$C$241</definedName>
+    <definedName name="_tV0rWhHr9cj">Metadata!$C$87</definedName>
+    <definedName name="_TWyMjVaaxmT">Metadata!$C$267</definedName>
+    <definedName name="_u3GOCB1Hu01">Metadata!$C$85</definedName>
+    <definedName name="_u7H4MyT2Y0A">Metadata!$C$76</definedName>
+    <definedName name="_UJVEh0g7qOo">Metadata!$C$127</definedName>
+    <definedName name="_UlQiEogy3wG">Metadata!$C$234</definedName>
+    <definedName name="_uvTw0Kus5KZ">Metadata!$C$159</definedName>
+    <definedName name="_v2B5AtYQV8H">Metadata!$C$188</definedName>
+    <definedName name="_VbbSe7wgS9s">Metadata!$C$59</definedName>
+    <definedName name="_vboedbUs1As">Metadata!$C$272</definedName>
+    <definedName name="_vg4b11FL2Gl">Metadata!$C$282</definedName>
+    <definedName name="_VGOzFKfSazN">Metadata!$C$46</definedName>
+    <definedName name="_VJrTuNXAg9G">Metadata!$C$287</definedName>
+    <definedName name="_vkXlj7ZPkGi">Metadata!$C$222</definedName>
+    <definedName name="_VMqDEughMuP">Metadata!$C$276</definedName>
+    <definedName name="_vnbnnSZXGTv">Metadata!$C$118</definedName>
+    <definedName name="_VnTycSnraEY">Metadata!$C$126</definedName>
+    <definedName name="_VPesUmegQpP">Metadata!$C$83</definedName>
+    <definedName name="_vPoFz9J1v6Y">Metadata!$C$214</definedName>
+    <definedName name="_VtVkbvygJnm">Metadata!$C$35</definedName>
+    <definedName name="_VwqhqUCaMgk">Metadata!$C$236</definedName>
+    <definedName name="_VYVKdqiXo4b">Metadata!$C$48</definedName>
+    <definedName name="_w3IJVQhc8Rm">Metadata!$C$227</definedName>
+    <definedName name="_WApLDd37Yj2">Metadata!$C$155</definedName>
+    <definedName name="_WC5rU5fLMzY">Metadata!$C$137</definedName>
+    <definedName name="_wFkq5oB0dFS">Metadata!$C$285</definedName>
+    <definedName name="_wimH12ukPK5">Metadata!$C$251</definedName>
+    <definedName name="_wj7iV08dvFq">Metadata!$C$248</definedName>
+    <definedName name="_wMTP4GblKr8">Metadata!$C$225</definedName>
+    <definedName name="_wnuoeS9sVZR">Metadata!$C$208</definedName>
+    <definedName name="_Wpzccx0vjIP">Metadata!$C$221</definedName>
+    <definedName name="_WtcZBCTspgM">Metadata!$C$275</definedName>
+    <definedName name="_wUBWZEHJm6Q">Metadata!$C$219</definedName>
+    <definedName name="_WuQvgvXKamv">Metadata!$C$198</definedName>
+    <definedName name="_WXGcnQWJ0Qd">Metadata!$C$107</definedName>
+    <definedName name="_WXTEJg6SJAc">Metadata!$C$27</definedName>
+    <definedName name="_wyKC2eWRH3y">Metadata!$C$70</definedName>
+    <definedName name="_x6DVvicRjYC">Metadata!$C$163</definedName>
+    <definedName name="_xb2ezJcUoSR">Metadata!$C$271</definedName>
+    <definedName name="_xB6nQN5Wtpg">Metadata!$C$247</definedName>
+    <definedName name="_XebDUbuPqVx">Metadata!$C$161</definedName>
+    <definedName name="_XeWqwCw9G5s">Metadata!$C$119</definedName>
+    <definedName name="_XiMIOSJ0d3c">Metadata!$C$39</definedName>
+    <definedName name="_XjHXb0aFH5w">Metadata!$C$94</definedName>
+    <definedName name="_XJscL6IuHpd">Metadata!$C$165</definedName>
+    <definedName name="_XKKI1hhyFxk">Metadata!$C$105</definedName>
+    <definedName name="_xqjIL1cGrl1">Metadata!$C$298</definedName>
+    <definedName name="_Xr12mI7VPn3">Metadata!$C$31</definedName>
+    <definedName name="_Xr81a9iOAyC">Metadata!$C$9</definedName>
+    <definedName name="_XYpsN5j30R9">Metadata!$C$189</definedName>
+    <definedName name="_Xz7rnovuiOx">Metadata!$C$80</definedName>
+    <definedName name="_y582ESg0Vjo">Metadata!$C$91</definedName>
+    <definedName name="_Y7fcspgsU43">Metadata!$C$37</definedName>
+    <definedName name="_yazrkuSMGHD">Metadata!$C$15</definedName>
+    <definedName name="_yBqy4nxuOCA">Metadata!$C$230</definedName>
+    <definedName name="_Yg9QkNQk9p7">Metadata!$C$111</definedName>
+    <definedName name="_YOL13ptz4ef">Metadata!$C$200</definedName>
+    <definedName name="_yp7OM2HDp2q">Metadata!$C$40</definedName>
+    <definedName name="_yzAMOdV0Pmr">Metadata!$C$217</definedName>
+    <definedName name="_z51rgcc5R8V">Metadata!$C$131</definedName>
+    <definedName name="_z5ouOuycTPO">Metadata!$C$260</definedName>
+    <definedName name="_zaluKz5Llai">Metadata!$C$177</definedName>
+    <definedName name="_Zav7juzGmEo">Metadata!$C$220</definedName>
+    <definedName name="_ZcrjvJaYQb7">Metadata!$C$86</definedName>
+    <definedName name="_Zdl3ad7PayF">Metadata!$C$102</definedName>
+    <definedName name="_zEYrsiNUGIo">Metadata!$C$121</definedName>
+    <definedName name="_zFInPJBZVbN">Metadata!$C$88</definedName>
+    <definedName name="_ZgsdoEiTlLq">Metadata!$C$243</definedName>
+    <definedName name="_ZRxKEGQmkWI">Metadata!$C$231</definedName>
+    <definedName name="_zYQqFxQw5jj">Metadata!$C$277</definedName>
+    <definedName name="_ZzoDfdWIt6z">Metadata!$C$67</definedName>
     <definedName name="dropdownlist">'Entry into Labour Market'!$AG$2:INDEX('Entry into Labour Market'!$AG$2:$AG$250,MAX('Entry into Labour Market'!$AF$2:$AF$250),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -25,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="937">
   <si>
     <t xml:space="preserve">NATIONAL  HEALTH WORKFORCE ACCOUNTS DATA </t>
   </si>
@@ -2312,9 +2623,6 @@
 (5-04)</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">    General Medical Practitioners</t>
   </si>
   <si>
@@ -2332,12 +2640,6 @@
     <t>Health Labour Market Flows</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>dNLjKwsVjod</t>
   </si>
   <si>
@@ -2543,6 +2845,318 @@
   </si>
   <si>
     <t>NHWA_MODULE_5_v1</t>
+  </si>
+  <si>
+    <t>True only</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Periods</t>
+  </si>
+  <si>
+    <t>Organisation Units</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>organisationUnit</t>
+  </si>
+  <si>
+    <t>Midwifery Professional</t>
+  </si>
+  <si>
+    <t>categoryOptions</t>
+  </si>
+  <si>
+    <t>CpV0L0Y9i9h</t>
+  </si>
+  <si>
+    <t>K5u7PTVJDz9</t>
+  </si>
+  <si>
+    <t>Pharmacist</t>
+  </si>
+  <si>
+    <t>pL6jJhifUxq</t>
+  </si>
+  <si>
+    <t>Specialist Medical Practitioner</t>
+  </si>
+  <si>
+    <t>Snhh7MxvJ09</t>
+  </si>
+  <si>
+    <t>General Medical Practitioner</t>
+  </si>
+  <si>
+    <t>yp7OM2HDp2q</t>
+  </si>
+  <si>
+    <t>Dentist</t>
+  </si>
+  <si>
+    <t>XiMIOSJ0d3c</t>
+  </si>
+  <si>
+    <t>Nursing Professional</t>
+  </si>
+  <si>
+    <t>ncopO2Sj2RB</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Y7fcspgsU43</t>
+  </si>
+  <si>
+    <t>old_NHWA_General Medical Practitioner</t>
+  </si>
+  <si>
+    <t>categoryOptionCombos</t>
+  </si>
+  <si>
+    <t>LHbCtHlZr3Y</t>
+  </si>
+  <si>
+    <t>old_NHWA_Specialist Medical Practitioner</t>
+  </si>
+  <si>
+    <t>VtVkbvygJnm</t>
+  </si>
+  <si>
+    <t>old_NHWA_Nursing Professional</t>
+  </si>
+  <si>
+    <t>fGOgbIqsxDn</t>
+  </si>
+  <si>
+    <t>old_NHWA_Midwifery Professional</t>
+  </si>
+  <si>
+    <t>MPzyVWiSFF2</t>
+  </si>
+  <si>
+    <t>old_NHWA_Dentist</t>
+  </si>
+  <si>
+    <t>ALBRKpJsddQ</t>
+  </si>
+  <si>
+    <t>Xr12mI7VPn3</t>
+  </si>
+  <si>
+    <t>old_NHWA_Medical Doctors</t>
+  </si>
+  <si>
+    <t>aBpbcEgtzgw</t>
+  </si>
+  <si>
+    <t>old_NHWA_Pharmacist</t>
+  </si>
+  <si>
+    <t>iWRW6jXAzvP</t>
+  </si>
+  <si>
+    <t>NHWA Module 5</t>
+  </si>
+  <si>
+    <t>dataSets</t>
+  </si>
+  <si>
+    <t>cxfAcMbSZe1</t>
+  </si>
+  <si>
+    <t>HWF Module 5</t>
+  </si>
+  <si>
+    <t>dataEntryForms</t>
+  </si>
+  <si>
+    <t>WXTEJg6SJAc</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>DMyxTSpvKOp</t>
+  </si>
+  <si>
+    <t>NHWA_Key Occupations</t>
+  </si>
+  <si>
+    <t>phnE76RjYz8</t>
+  </si>
+  <si>
+    <t>categoryCombos</t>
+  </si>
+  <si>
+    <t>JzvGfLYkX17</t>
+  </si>
+  <si>
+    <t>CVlyw498LdE</t>
+  </si>
+  <si>
+    <t>INTEGER_ZERO_OR_POSITIVE</t>
+  </si>
+  <si>
+    <t>Female HWF who have voluntary exit from the force</t>
+  </si>
+  <si>
+    <t>dataElements</t>
+  </si>
+  <si>
+    <t>sw0lh63wqsA</t>
+  </si>
+  <si>
+    <t>Newly active foreign trained Health Workforce</t>
+  </si>
+  <si>
+    <t>OI5vu4jG4Rf</t>
+  </si>
+  <si>
+    <t>Female newly active domestic trained HWF</t>
+  </si>
+  <si>
+    <t>sF1LtVEqk6Y</t>
+  </si>
+  <si>
+    <t>Male newly active foreign trained Health Workforce</t>
+  </si>
+  <si>
+    <t>h1S7GCkmvVn</t>
+  </si>
+  <si>
+    <t>Vacancy rate for HWF</t>
+  </si>
+  <si>
+    <t>aeGGK8bRvmr</t>
+  </si>
+  <si>
+    <t>Female HWF practicing within 1 year of graduation</t>
+  </si>
+  <si>
+    <t>SSzpjcForGt</t>
+  </si>
+  <si>
+    <t>Health workforce currently unemployed</t>
+  </si>
+  <si>
+    <t>sdNHn8qmokO</t>
+  </si>
+  <si>
+    <t>Female HWF involuntary exit from the force</t>
+  </si>
+  <si>
+    <t>yazrkuSMGHD</t>
+  </si>
+  <si>
+    <t>HWF practicing within one year of graduation</t>
+  </si>
+  <si>
+    <t>P9FK7e2Ngsz</t>
+  </si>
+  <si>
+    <t>HWF who have involuntary exit from the force</t>
+  </si>
+  <si>
+    <t>NNQYgAf2Cj8</t>
+  </si>
+  <si>
+    <t>Male HWF who have voluntary exit from the force</t>
+  </si>
+  <si>
+    <t>qQBFc1FSZBd</t>
+  </si>
+  <si>
+    <t>Male HWF who have involuntary exit from the force</t>
+  </si>
+  <si>
+    <t>AZqsANkZRnD</t>
+  </si>
+  <si>
+    <t>Male HWF practicing within one year of graduation</t>
+  </si>
+  <si>
+    <t>qNRERx0Icjw</t>
+  </si>
+  <si>
+    <t>Male Health workforce currently unemployed</t>
+  </si>
+  <si>
+    <t>Xr81a9iOAyC</t>
+  </si>
+  <si>
+    <t>Male newly active domestic trained HWF</t>
+  </si>
+  <si>
+    <t>gvkPV8aqP39</t>
+  </si>
+  <si>
+    <t>Female Health workforce currently unemployed</t>
+  </si>
+  <si>
+    <t>kcoQHDRTi4E</t>
+  </si>
+  <si>
+    <t>FILE_RESOURCE</t>
+  </si>
+  <si>
+    <t>HWF Module 5 File upload</t>
+  </si>
+  <si>
+    <t>ek4BsT4iUo8</t>
+  </si>
+  <si>
+    <t>Newly active domestic trained Health Workforce</t>
+  </si>
+  <si>
+    <t>DwYaOZuilM8</t>
+  </si>
+  <si>
+    <t>Female newly active foreign trained HWF</t>
+  </si>
+  <si>
+    <t>ftfTDf31OnN</t>
+  </si>
+  <si>
+    <t>HWF who have voluntary exit from the force</t>
+  </si>
+  <si>
+    <t>BOPZbzxOfSA</t>
+  </si>
+  <si>
+    <t>Possible Values</t>
+  </si>
+  <si>
+    <t>Option Set</t>
+  </si>
+  <si>
+    <t>Value Type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Identifier</t>
   </si>
 </sst>
 </file>
@@ -2553,7 +3167,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2607,8 +3221,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2631,6 +3251,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -2710,7 +3335,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2732,8 +3357,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2811,6 +3437,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="19"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2839,8 +3466,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Comma [0] 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Comma [0] 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2859,6 +3497,7 @@
     <cellStyle name="Normal 6" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Normal 7" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Normal 8" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 9" xfId="19" xr:uid="{F66816ED-DBB8-4CFA-AF0F-EC027E429C1E}"/>
     <cellStyle name="tgl" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2872,73 +3511,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2050" name="ComboBox1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2050"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3261,12 +3833,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CB266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3295,24 +3867,24 @@
   <sheetData>
     <row r="1" spans="1:33" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>835</v>
-      </c>
-      <c r="B1" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -3320,9 +3892,7 @@
       <c r="T1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="10" t="s">
-        <v>759</v>
-      </c>
+      <c r="X1" s="10"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="4" t="s">
@@ -3339,22 +3909,22 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>764</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -3362,10 +3932,7 @@
       <c r="T2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="11" t="e">
-        <f>VLOOKUP(X1,AA2:AD250,2,0)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="X2" s="11"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="4" t="s">
@@ -3448,11 +4015,13 @@
       <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
       <c r="G4" s="26" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="27" t="str">
-        <f>IFERROR(VLOOKUP(X1,AA2:AD250,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(C4,AA2:AD250,4,0),"")</f>
         <v/>
       </c>
       <c r="J4" s="24" t="s">
@@ -3532,11 +4101,11 @@
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
       <c r="AA6" s="4" t="s">
         <v>109</v>
       </c>
@@ -3563,33 +4132,33 @@
       </c>
     </row>
     <row r="7" spans="1:33" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="33" t="s">
         <v>750</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="35" t="s">
         <v>751</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="37" t="s">
         <v>752</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="34" t="s">
+      <c r="F7" s="38"/>
+      <c r="G7" s="35" t="s">
         <v>753</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="37" t="s">
         <v>754</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="34" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="35" t="s">
         <v>755</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="37" t="s">
         <v>756</v>
       </c>
-      <c r="L7" s="37"/>
+      <c r="L7" s="38"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="16"/>
@@ -3623,23 +4192,23 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="35"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="35"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="35"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="21" t="s">
         <v>10</v>
       </c>
@@ -3727,11 +4296,11 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>765</v>
+      <c r="B10" s="6">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -3775,11 +4344,11 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>766</v>
+      <c r="B11" s="6">
+        <v>1.2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -4071,7 +4640,7 @@
         <v>158</v>
       </c>
       <c r="AB18" s="28" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="AC18" s="28" t="s">
         <v>671</v>
@@ -4380,13 +4949,13 @@
     </row>
     <row r="30" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA30" s="28" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="AB30" s="28" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="AC30" s="28" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="AD30" s="28" t="s">
         <v>524</v>
@@ -4432,13 +5001,13 @@
     </row>
     <row r="32" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA32" s="28" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="AB32" s="28" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="AC32" s="28" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="AD32" s="28" t="s">
         <v>524</v>
@@ -4822,7 +5391,7 @@
     </row>
     <row r="47" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA47" s="28" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="AB47" s="28" t="s">
         <v>543</v>
@@ -4848,7 +5417,7 @@
     </row>
     <row r="48" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA48" s="28" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="AB48" s="28" t="s">
         <v>545</v>
@@ -4874,13 +5443,13 @@
     </row>
     <row r="49" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA49" s="28" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="AB49" s="28" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="AC49" s="28" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="AD49" s="28" t="s">
         <v>524</v>
@@ -4926,13 +5495,13 @@
     </row>
     <row r="51" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA51" s="28" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="AB51" s="28" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="AC51" s="28" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="AD51" s="28" t="s">
         <v>524</v>
@@ -4952,13 +5521,13 @@
     </row>
     <row r="52" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA52" s="28" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="AB52" s="28" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="AC52" s="28" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="AD52" s="28" t="s">
         <v>524</v>
@@ -5233,7 +5802,7 @@
     </row>
     <row r="60" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA60" s="28" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="AB60" s="28" t="s">
         <v>550</v>
@@ -5285,7 +5854,7 @@
     </row>
     <row r="62" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA62" s="28" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="AB62" s="28" t="s">
         <v>437</v>
@@ -5337,7 +5906,7 @@
     </row>
     <row r="64" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA64" s="28" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="AB64" s="28" t="s">
         <v>225</v>
@@ -5675,7 +6244,7 @@
     </row>
     <row r="77" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA77" s="4" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="AB77" s="4" t="s">
         <v>284</v>
@@ -5909,13 +6478,13 @@
     </row>
     <row r="86" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA86" s="4" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="AB86" s="4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="AC86" s="4" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="AD86" s="4" t="s">
         <v>524</v>
@@ -6325,13 +6894,13 @@
     </row>
     <row r="102" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA102" s="4" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="AB102" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="AC102" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AD102" s="4" t="s">
         <v>524</v>
@@ -6455,13 +7024,13 @@
     </row>
     <row r="107" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA107" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="AB107" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="AC107" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="AD107" s="4" t="s">
         <v>524</v>
@@ -6481,13 +7050,13 @@
     </row>
     <row r="108" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA108" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="AB108" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="AC108" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="AD108" s="4" t="s">
         <v>524</v>
@@ -6715,13 +7284,13 @@
     </row>
     <row r="117" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA117" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="AB117" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="AC117" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="AD117" s="4" t="s">
         <v>524</v>
@@ -6845,13 +7414,13 @@
     </row>
     <row r="122" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA122" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="AB122" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="AC122" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="AD122" s="4" t="s">
         <v>524</v>
@@ -8093,7 +8662,7 @@
     </row>
     <row r="170" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA170" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AB170" s="4" t="s">
         <v>509</v>
@@ -8379,7 +8948,7 @@
     </row>
     <row r="181" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA181" s="4" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="AB181" s="4" t="s">
         <v>612</v>
@@ -8691,7 +9260,7 @@
     </row>
     <row r="193" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA193" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="AB193" s="4" t="s">
         <v>620</v>
@@ -8717,13 +9286,13 @@
     </row>
     <row r="194" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA194" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="AB194" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="AC194" s="4" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="AD194" s="4" t="s">
         <v>524</v>
@@ -8821,13 +9390,13 @@
     </row>
     <row r="198" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA198" s="4" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="AB198" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="AC198" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="AD198" s="4" t="s">
         <v>524</v>
@@ -9315,13 +9884,13 @@
     </row>
     <row r="217" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA217" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="AB217" s="4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="AC217" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="AD217" s="4" t="s">
         <v>524</v>
@@ -9497,13 +10066,13 @@
     </row>
     <row r="224" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA224" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="AB224" s="4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="AC224" s="4" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="AD224" s="4" t="s">
         <v>524</v>
@@ -9939,7 +10508,7 @@
     </row>
     <row r="241" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA241" s="4" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="AB241" s="4" t="s">
         <v>661</v>
@@ -10069,7 +10638,7 @@
     </row>
     <row r="246" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA246" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="AB246" s="4" t="s">
         <v>517</v>
@@ -10199,13 +10768,13 @@
     </row>
     <row r="251" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA251" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="AB251" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="AC251" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="AD251" s="4" t="s">
         <v>524</v>
@@ -10381,7 +10950,7 @@
     </row>
     <row r="258" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA258" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="AB258" s="4" t="s">
         <v>663</v>
@@ -10433,7 +11002,7 @@
     </row>
     <row r="260" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA260" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="AB260" s="4" t="s">
         <v>396</v>
@@ -10459,13 +11028,13 @@
     </row>
     <row r="261" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA261" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="AB261" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="AC261" s="4" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="AD261" s="4" t="s">
         <v>524</v>
@@ -10589,13 +11158,13 @@
     </row>
     <row r="266" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA266" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="AB266" s="4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AC266" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AD266" s="4" t="s">
         <v>524</v>
@@ -10614,8 +11183,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="I59ROVBstQo5MFLl7seOlwH97/8trwXUUwg/j8hrzmDt4hwT+gWPi2GFb6pjGOZjwM+bFz7qyb4hSAVWakYqIw==" saltValue="i+4wjmCbRDAe0olRhH+r5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="12">
+  <sheetProtection algorithmName="SHA-512" hashValue="1SdMdf3VX1U8aG3++weiI9eNikDisOzPaczz5rmswFOjcNhr1oe0ogCDpqTnhDTB8AbN/GiNNUwxKu5ag14fPw==" saltValue="Yyo0Xw7GVJApSOi/IFdOOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="13">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="U6:V6"/>
@@ -10628,6 +11197,7 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:L15" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -10640,35 +11210,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId4" name="ComboBox1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="X1" listFillRange="dropdownlist" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>285750</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId4" name="ComboBox1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A4E22A28-3EE5-4729-9EF6-2780EF738087}">
+          <x14:formula1>
+            <xm:f>Validation!$A$3:$A$1024</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:D4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10698,41 +11251,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>764</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="12" t="e">
+      <c r="B2" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="12">
         <f>'Entry into Labour Market'!X2</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
@@ -10755,9 +11308,9 @@
       <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="str">
-        <f>'Entry into Labour Market'!X1</f>
-        <v/>
+      <c r="C4" s="27">
+        <f>'Entry into Labour Market'!C4</f>
+        <v>0</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>1</v>
@@ -10785,57 +11338,57 @@
       <c r="O6" s="12"/>
     </row>
     <row r="7" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>750</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="35" t="s">
+        <v>761</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="35" t="s">
+        <v>757</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>758</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>758</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="35" t="s">
         <v>762</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="L7" s="37" t="s">
         <v>762</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="34" t="s">
-        <v>757</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>758</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>758</v>
-      </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>763</v>
-      </c>
-      <c r="M7" s="37"/>
+      <c r="M7" s="38"/>
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="35"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="23" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="35"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="23" t="s">
         <v>10</v>
       </c>
@@ -10862,11 +11415,11 @@
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>765</v>
+      <c r="B10" s="6">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -10880,11 +11433,11 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>766</v>
+      <c r="B11" s="6">
+        <v>1.2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -10970,7 +11523,7 @@
       <c r="M15" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d3+T2wLS2o3aeZHsvIQNTiBHroJT4Kp1JbxtExhrSA0rIn3t54oKJCMHNuSRGEG/EHtYQr7grmntJyeE7GaTGA==" saltValue="YYQtK41tPO4bAP0R6GSMLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xLZP6RigANUQ97rOXBH54soOqheqAy/9LOlpMYrem7ftElNug2szODQtRWOkwWlbzGzlJ8+efinpvNYCN9R2zA==" saltValue="FfNwiDf+Y9zHOpkV4nm/ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="11">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:N2"/>
@@ -10992,4 +11545,5182 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6DF53E-DAAD-42A2-89CB-11AE8E3F50AD}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:E267"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="12.5703125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="str">
+        <f>_cxfAcMbSZe1</f>
+        <v>NHWA Module 5</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>837</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>836</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>835</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>834</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="str">
+        <f>_oofyLUJJ6Vy</f>
+        <v>Afghanistan</v>
+      </c>
+      <c r="B3" s="30">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="30" t="str">
+        <f>_Xr12mI7VPn3</f>
+        <v>default</v>
+      </c>
+      <c r="D3" s="30" t="str">
+        <f>_true</f>
+        <v>Yes</v>
+      </c>
+      <c r="E3" s="30" t="str">
+        <f>_true</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="str">
+        <f>_VGOzFKfSazN</f>
+        <v>Albania</v>
+      </c>
+      <c r="D4" s="30" t="str">
+        <f>_false</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="str">
+        <f>_mNa42CHbkO7</f>
+        <v>Algeria</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="str">
+        <f>_VYVKdqiXo4b</f>
+        <v>American Samoa</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="str">
+        <f>_Rmy6DbwekE1</f>
+        <v>Andorra</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="str">
+        <f>_jFOZHDZpjPL</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="str">
+        <f>_f4ZFD2aswys</f>
+        <v>Anguilla</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="str">
+        <f>_pfhvgmllA9M</f>
+        <v>Antigua and Barbuda</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="str">
+        <f>_AZdPnw0b1lm</f>
+        <v>Argentina</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="str">
+        <f>_cWrL45je7mw</f>
+        <v>Armenia</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="str">
+        <f>_lKZR6UK0afN</f>
+        <v>Aruba</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="str">
+        <f>_LbWpsX1FJcC</f>
+        <v>Australia</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="str">
+        <f>_e9IoKRAkYLO</f>
+        <v>Austria</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="str">
+        <f>_ST86paYjRHP</f>
+        <v>Azerbaijan</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="str">
+        <f>_VbbSe7wgS9s</f>
+        <v>Bahamas</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="str">
+        <f>_T7tKHiW1Db1</f>
+        <v>Bahrain</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="str">
+        <f>_dNLjKwsVjod</f>
+        <v>Bangladesh</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="str">
+        <f>_iNT35p3jsEM</f>
+        <v>Barbados</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="str">
+        <f>_Tr4i6jeDDqj</f>
+        <v>Belarus</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="str">
+        <f>_KwgjnBBpe5b</f>
+        <v>Belgium</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="str">
+        <f>_Nrnay4JA8Ga</f>
+        <v>Belize</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="str">
+        <f>_DzAOqCf0ots</f>
+        <v>Benin</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="str">
+        <f>_ZzoDfdWIt6z</f>
+        <v>Bermuda</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="str">
+        <f>_JQ5qF3mRCMe</f>
+        <v>Bhutan</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="str">
+        <f>_cpmmPDsQ3uG</f>
+        <v>Bolivia (Plurinational State of)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="str">
+        <f>_wyKC2eWRH3y</f>
+        <v>Bonaire, Saint Eustatius and Saba</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="str">
+        <f>_n8iofJiiX4T</f>
+        <v>Bosnia and Herzegovina</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="str">
+        <f>_c82mDnhUQly</f>
+        <v>Botswana</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="str">
+        <f>_sg5v6c9tCZ3</f>
+        <v>Bouvet Island</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="str">
+        <f>_dpcvWc01CeN</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="str">
+        <f>_PFAtPR87fHs</f>
+        <v>British Indian Ocean Territory</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="str">
+        <f>_u7H4MyT2Y0A</f>
+        <v>British Virgin Islands</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="str">
+        <f>_MJEntShoQVK</f>
+        <v>Brunei Darussalam</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="str">
+        <f>_AjeCGGb8H76</f>
+        <v>Bulgaria</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="str">
+        <f>_hmZE3mVAZFf</f>
+        <v>Burkina Faso</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="str">
+        <f>_Xz7rnovuiOx</f>
+        <v>Burundi</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="str">
+        <f>_bGWaeVBrOcc</f>
+        <v>Cabo Verde</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="str">
+        <f>_dscgTvwyCw8</f>
+        <v>Cambodia</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="str">
+        <f>_VPesUmegQpP</f>
+        <v>Cameroon</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="str">
+        <f>_AJBfDthkySs</f>
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="str">
+        <f>_u3GOCB1Hu01</f>
+        <v>Cayman Islands</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="str">
+        <f>_ZcrjvJaYQb7</f>
+        <v>Central African Republic</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="str">
+        <f>_tV0rWhHr9cj</f>
+        <v>Chad</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="str">
+        <f>_zFInPJBZVbN</f>
+        <v>Chile</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="str">
+        <f>_q23bFLr2E5D</f>
+        <v>China</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="str">
+        <f>_myv7amOYTHn</f>
+        <v>China, Hong Kong SAR</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="str">
+        <f>_y582ESg0Vjo</f>
+        <v>China, Macao SAR</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="str">
+        <f>_lGN2n7pZ6Ua</f>
+        <v>China, Province of Taiwan</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="str">
+        <f>_a0Tb0vzKk1m</f>
+        <v>China: Province of Taiwan only</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="30" t="str">
+        <f>_XjHXb0aFH5w</f>
+        <v>Christmas Island</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="str">
+        <f>_AFIorEPU00q</f>
+        <v>Cocos (Keeling) Islands</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="str">
+        <f>_jXQq22U4Y2e</f>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="str">
+        <f>_RTdjvXHJdnH</f>
+        <v>Comoros</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="str">
+        <f>_shRXArPWh8H</f>
+        <v>Congo</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="str">
+        <f>_TldYkeCwb5r</f>
+        <v>Cook Islands</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="30" t="str">
+        <f>_pbH6bmcioGw</f>
+        <v>Costa Rica</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="str">
+        <f>_lbMrRSBsXh3</f>
+        <v>Croatia</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="str">
+        <f>_Zdl3ad7PayF</f>
+        <v>Cuba</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="str">
+        <f>_QSpLidCdqMU</f>
+        <v>Curaçao</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="str">
+        <f>_Mb9IYOFZYCv</f>
+        <v>Cyprus</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="30" t="str">
+        <f>_XKKI1hhyFxk</f>
+        <v>Czechia</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="str">
+        <f>_NhuW760cOQG</f>
+        <v>Czechoslovakia, Former</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="30" t="str">
+        <f>_WXGcnQWJ0Qd</f>
+        <v>Côte d'Ivoire</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="30" t="str">
+        <f>_OFXJXWnOG0R</f>
+        <v>Democratic People's Republic of Korea</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="30" t="str">
+        <f>_EDHO4qOyY88</f>
+        <v>Democratic Republic of the Congo</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="30" t="str">
+        <f>_CCl7hAqlrmE</f>
+        <v>Denmark</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="30" t="str">
+        <f>_Yg9QkNQk9p7</f>
+        <v>Djibouti</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="30" t="str">
+        <f>_s1mzBU7YOaZ</f>
+        <v>Dominica</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="30" t="str">
+        <f>_PpjdOoVUc7k</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="30" t="str">
+        <f>_LAPR4Iu2NVS</f>
+        <v>Ecuador</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="30" t="str">
+        <f>_JIr15Xt3EQn</f>
+        <v>Egypt</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="30" t="str">
+        <f>_Mk7P920hkBa</f>
+        <v>El Salvador</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="30" t="str">
+        <f>_Fi5lLVwe1Th</f>
+        <v>Equatorial Guinea</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="30" t="str">
+        <f>_vnbnnSZXGTv</f>
+        <v>Eritrea</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="30" t="str">
+        <f>_XeWqwCw9G5s</f>
+        <v>Estonia</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="30" t="str">
+        <f>_G3thRWUQAX9</f>
+        <v>Eswatini</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="30" t="str">
+        <f>_zEYrsiNUGIo</f>
+        <v>Ethiopia</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="30" t="str">
+        <f>_PRrdILmQQb3</f>
+        <v>Falkland Islands (Malvinas)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="30" t="str">
+        <f>_ngUSWwX0Oby</f>
+        <v>Faroe Islands</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="30" t="str">
+        <f>_sSIYRwB1r74</f>
+        <v>Fiji</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="30" t="str">
+        <f>_bnQX2QIuIY9</f>
+        <v>Finland</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="30" t="str">
+        <f>_VnTycSnraEY</f>
+        <v>France</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="30" t="str">
+        <f>_UJVEh0g7qOo</f>
+        <v>French Guiana</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="30" t="str">
+        <f>_QLERXr2o7IE</f>
+        <v>French Polynesia</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="30" t="str">
+        <f>_BLpPqpMtgQY</f>
+        <v>French Southern Territories</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="30" t="str">
+        <f>_EGLpIMSAWhx</f>
+        <v>Gabon</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="30" t="str">
+        <f>_z51rgcc5R8V</f>
+        <v>Gambia</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="30" t="str">
+        <f>_fg8TSIHSGHX</f>
+        <v>Georgia</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="30" t="str">
+        <f>_Ri2tb7LBVtP</f>
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="30" t="str">
+        <f>_hgGOTFYZxMO</f>
+        <v>Germany, Former Democratic Republic</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="30" t="str">
+        <f>_E9G2aQpCs1A</f>
+        <v>Germany, Former Federal Republic</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="30" t="str">
+        <f>_Fq9qs6Kn6wN</f>
+        <v>Germany, West Berlin</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="30" t="str">
+        <f>_WC5rU5fLMzY</f>
+        <v>Ghana</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="30" t="str">
+        <f>_BVzmce6DVeS</f>
+        <v>Gibraltar</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="30" t="str">
+        <f>_eyvitcZL4ex</f>
+        <v>Greece</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="30" t="str">
+        <f>_IZy3ESdFnp5</f>
+        <v>Greenland</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="30" t="str">
+        <f>_gg9DH7dvdeD</f>
+        <v>Grenada</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="30" t="str">
+        <f>_cRWrIpjzvVl</f>
+        <v>Guadeloupe</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="30" t="str">
+        <f>_q9u7nkNkuGy</f>
+        <v>Guam</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="30" t="str">
+        <f>_bhkJDAiqVKX</f>
+        <v>Guatemala</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="30" t="str">
+        <f>_NUkOvK4bnj2</f>
+        <v>Guernsey</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="30" t="str">
+        <f>_quQpOfBIDFC</f>
+        <v>Guinea</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="30" t="str">
+        <f>_G9o5ad4oJJX</f>
+        <v>Guinea-Bissau</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="30" t="str">
+        <f>_AUStREIxT4s</f>
+        <v>Guyana</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="30" t="str">
+        <f>_ipe4pT2TW7G</f>
+        <v>Haiti</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="30" t="str">
+        <f>_apVWLKfARpb</f>
+        <v>Heard Island and McDonald Islands</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="30" t="str">
+        <f>_jZOt27rWre8</f>
+        <v>Holy See</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="30" t="str">
+        <f>_mDSuyD9lOM5</f>
+        <v>Honduras</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="30" t="str">
+        <f>_g49fuSiB623</f>
+        <v>Hungary</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="30" t="str">
+        <f>_Bc3mYAhlY1a</f>
+        <v>Iceland</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="30" t="str">
+        <f>_WApLDd37Yj2</f>
+        <v>India</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="30" t="str">
+        <f>_jVqoXv7rFns</f>
+        <v>Indonesia</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="30" t="str">
+        <f>_SsAjVE1S87E</f>
+        <v>Iran (Islamic Republic of)</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="30" t="str">
+        <f>_fHXW26zg2U6</f>
+        <v>Iraq</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="30" t="str">
+        <f>_uvTw0Kus5KZ</f>
+        <v>Ireland</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="30" t="str">
+        <f>_ehNfKt5LpG9</f>
+        <v>Isle of Man</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="30" t="str">
+        <f>_XebDUbuPqVx</f>
+        <v>Israel</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="30" t="str">
+        <f>_ElwEWppmGgv</f>
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="30" t="str">
+        <f>_x6DVvicRjYC</f>
+        <v>Jamaica</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="30" t="str">
+        <f>_JI5lagoUJR4</f>
+        <v>Japan</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="30" t="str">
+        <f>_XJscL6IuHpd</f>
+        <v>Jersey</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="30" t="str">
+        <f>_GWQBgBHdbbp</f>
+        <v>Jordan</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="30" t="str">
+        <f>_ibGsqmiVkoU</f>
+        <v>Kazakhstan</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="30" t="str">
+        <f>_HfVjCurKxh2</f>
+        <v>Kenya</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="30" t="str">
+        <f>_Nlv8oKkoAwp</f>
+        <v>Kiribati</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="30" t="str">
+        <f>_tnTRnfd2aVs</f>
+        <v>Kuwait</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="30" t="str">
+        <f>_tDFavWinSwr</f>
+        <v>Kyrgyzstan</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="30" t="str">
+        <f>_bvyjEfI0d2V</f>
+        <v>Lao People's Democratic Republic</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="30" t="str">
+        <f>_gxi9jcBYyrL</f>
+        <v>Latvia</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="30" t="str">
+        <f>_ACalScnrl2I</f>
+        <v>Lebanon</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="30" t="str">
+        <f>_D4JnxOsqwE4</f>
+        <v>Lesotho</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="30" t="str">
+        <f>_JEHwU064LAj</f>
+        <v>Liberia</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="30" t="str">
+        <f>_zaluKz5Llai</f>
+        <v>Libya</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="30" t="str">
+        <f>_gMz0MxjZcEt</f>
+        <v>Liechtenstein</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="30" t="str">
+        <f>_T1irZBQ9gNW</f>
+        <v>Lithuania</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="30" t="str">
+        <f>_mmJUi0PpvGi</f>
+        <v>Luxembourg</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="30" t="str">
+        <f>_bcy4159FETR</f>
+        <v>Madagascar</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="30" t="str">
+        <f>_G037PAPU5dO</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="30" t="str">
+        <f>_BmTVMvJHVBO</f>
+        <v>Malaysia</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="30" t="str">
+        <f>_FOJUXD6f6lB</f>
+        <v>Maldives</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="30" t="str">
+        <f>_EubjsxqlA4d</f>
+        <v>Mali</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="30" t="str">
+        <f>_TIhakAVsQwM</f>
+        <v>Malta</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="30" t="str">
+        <f>_Ajnw1b8m6eL</f>
+        <v>Marshall Islands</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="30" t="str">
+        <f>_v2B5AtYQV8H</f>
+        <v>Martinique</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="30" t="str">
+        <f>_XYpsN5j30R9</f>
+        <v>Mauritania</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="30" t="str">
+        <f>_EB4aSZN0eQr</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="30" t="str">
+        <f>_Bon3xyAAWKf</f>
+        <v>Mayotte</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="30" t="str">
+        <f>_KAUSOoBq5Ft</f>
+        <v>Mexico</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="30" t="str">
+        <f>_lnvESj20mWZ</f>
+        <v>Micronesia (Federated States of)</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="30" t="str">
+        <f>_cZ8823L0fLJ</f>
+        <v>Monaco</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="30" t="str">
+        <f>_IZSm5iPKkDg</f>
+        <v>Mongolia</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="30" t="str">
+        <f>_JX7HJfPfbog</f>
+        <v>Montenegro</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="30" t="str">
+        <f>_B4iWc3gcDcn</f>
+        <v>Montserrat</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="30" t="str">
+        <f>_WuQvgvXKamv</f>
+        <v>Morocco</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="30" t="str">
+        <f>_Gan3VYicAWe</f>
+        <v>Mozambique</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="30" t="str">
+        <f>_YOL13ptz4ef</f>
+        <v>Myanmar</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="30" t="str">
+        <f>_rtLnlu4GUI2</f>
+        <v>Namibia</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="30" t="str">
+        <f>_Pz0LCggcqES</f>
+        <v>Nauru</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="30" t="str">
+        <f>_pZZriU4sY0l</f>
+        <v>Nepal</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="30" t="str">
+        <f>_rEQqufy2KNi</f>
+        <v>Netherlands</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="30" t="str">
+        <f>_COs48yLdDvg</f>
+        <v>Netherlands Antilles</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="30" t="str">
+        <f>_jMGr96nGwHN</f>
+        <v>New Caledonia</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="30" t="str">
+        <f>_hG1CNbw8wSF</f>
+        <v>New Zealand</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="30" t="str">
+        <f>_wnuoeS9sVZR</f>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="30" t="str">
+        <f>_O0hWoXlHhIS</f>
+        <v>Niger</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="30" t="str">
+        <f>_I3NxIqG7bD4</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="30" t="str">
+        <f>_KqaTbKanCG3</f>
+        <v>Niue</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="30" t="str">
+        <f>_O7BGyJhV2Tc</f>
+        <v>Norfolk Island</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="30" t="str">
+        <f>_cfBaKMnsXd1</f>
+        <v>North Macedonia</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="30" t="str">
+        <f>_vPoFz9J1v6Y</f>
+        <v>Northern Mariana Islands</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="30" t="str">
+        <f>_oy494aJtjTB</f>
+        <v>Norway</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="30" t="str">
+        <f>_G8FCnT37gyb</f>
+        <v>Oman</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="30" t="str">
+        <f>_yzAMOdV0Pmr</f>
+        <v>Pakistan</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="30" t="str">
+        <f>_iFaKKDtb7nf</f>
+        <v>Palau</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="30" t="str">
+        <f>_wUBWZEHJm6Q</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="30" t="str">
+        <f>_Zav7juzGmEo</f>
+        <v>Papua New Guinea</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="30" t="str">
+        <f>_Wpzccx0vjIP</f>
+        <v>Paraguay</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="30" t="str">
+        <f>_vkXlj7ZPkGi</f>
+        <v>Peru</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="30" t="str">
+        <f>_QkOClVdLto1</f>
+        <v>Philippines</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="30" t="str">
+        <f>_fHaKXfcKthe</f>
+        <v>Pitcairn</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="30" t="str">
+        <f>_wMTP4GblKr8</f>
+        <v>Poland</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="30" t="str">
+        <f>_PevCwH17M73</f>
+        <v>Portugal</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="30" t="str">
+        <f>_w3IJVQhc8Rm</f>
+        <v>Puerto Rico</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="30" t="str">
+        <f>_jCtFxm8aADJ</f>
+        <v>Qatar</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="30" t="str">
+        <f>_IbGbsybdeou</f>
+        <v>Republic of Korea</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="30" t="str">
+        <f>_yBqy4nxuOCA</f>
+        <v>Republic of Moldova</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="30" t="str">
+        <f>_ZRxKEGQmkWI</f>
+        <v>Rodrigues</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="30" t="str">
+        <f>_N9i1v07Ro0E</f>
+        <v>Romania</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="30" t="str">
+        <f>_i3v8r9XNls2</f>
+        <v>Russian Federation</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="30" t="str">
+        <f>_UlQiEogy3wG</f>
+        <v>Rwanda</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="30" t="str">
+        <f>_LTLHCOHyyWS</f>
+        <v>Ryu Kyu Islands</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="30" t="str">
+        <f>_VwqhqUCaMgk</f>
+        <v>Réunion</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="30" t="str">
+        <f>_GPyOOoIby8R</f>
+        <v>Saint Barthélemy</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="30" t="str">
+        <f>_aZ7Bm5L90rn</f>
+        <v>Saint Helena</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="30" t="str">
+        <f>_BlC8wOVHBlb</f>
+        <v>Saint Kitts and Nevis</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="30" t="str">
+        <f>_RyAd6laKg3U</f>
+        <v>Saint Lucia</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="30" t="str">
+        <f>_tSBEjAHKj9V</f>
+        <v>Saint Martin (French part)</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="30" t="str">
+        <f>_HYEuE8zV74t</f>
+        <v>Saint Pierre and Miquelon</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="30" t="str">
+        <f>_ZgsdoEiTlLq</f>
+        <v>Saint Vincent and the Grenadines</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="30" t="str">
+        <f>_hpXoMVtJpT3</f>
+        <v>Samoa</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="30" t="str">
+        <f>_SAsS1Kwc4iW</f>
+        <v>San Marino</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="30" t="str">
+        <f>_FNduj2N3e8s</f>
+        <v>Sao Tome and Principe</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="30" t="str">
+        <f>_xB6nQN5Wtpg</f>
+        <v>Saudi Arabia</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="30" t="str">
+        <f>_wj7iV08dvFq</f>
+        <v>Senegal</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="30" t="str">
+        <f>_oroMC4mMzMq</f>
+        <v>Serbia</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="30" t="str">
+        <f>_HizhPCC5Ps5</f>
+        <v>Serbia and Montenegro, Former</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="30" t="str">
+        <f>_wimH12ukPK5</f>
+        <v>Seychelles</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="30" t="str">
+        <f>_qbqrFLCJewu</f>
+        <v>Sierra Leone</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="30" t="str">
+        <f>_rb6V38jgfFc</f>
+        <v>Singapore</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="30" t="str">
+        <f>_cCgL3J7Lsgn</f>
+        <v>Sint Maarten (Dutch part)</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="30" t="str">
+        <f>_RDiXMdNXg16</f>
+        <v>Slovakia</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="30" t="str">
+        <f>_PY4aKgi30fr</f>
+        <v>Slovenia</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="30" t="str">
+        <f>_FUieyovDec8</f>
+        <v>Solomon Islands</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="30" t="str">
+        <f>_oWNF4d3PK8C</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="30" t="str">
+        <f>_lVPoUAKCdmU</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="30" t="str">
+        <f>_z5ouOuycTPO</f>
+        <v>South Georgia and the South Sandwich Islands</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="30" t="str">
+        <f>_mhWSEv79IJW</f>
+        <v>South Sudan</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="30" t="str">
+        <f>_DVnpk4xiXGJ</f>
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="30" t="str">
+        <f>_er7MPiN3tdH</f>
+        <v>Sri Lanka</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="30" t="str">
+        <f>_QqAzWHtJ8VC</f>
+        <v>Sudan</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="30" t="str">
+        <f>_IjLnDADGraQ</f>
+        <v>Sudan (former)</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="30" t="str">
+        <f>_jkyBvNzcTLl</f>
+        <v>Suriname</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="30" t="str">
+        <f>_TWyMjVaaxmT</f>
+        <v>Svalbard and Jan Mayen</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="30" t="str">
+        <f>_IFAb1JUZ0Fz</f>
+        <v>Sweden</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="30" t="str">
+        <f>_q2HqXV5OO3z</f>
+        <v>Switzerland</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="30" t="str">
+        <f>_HDN85xUGB65</f>
+        <v>Syrian Arab Republic</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="30" t="str">
+        <f>_xb2ezJcUoSR</f>
+        <v>Tajikistan</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="30" t="str">
+        <f>_vboedbUs1As</f>
+        <v>Thailand</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="30" t="str">
+        <f>_pGLy2Zj2lVg</f>
+        <v>The former state union Serbia and Montenegro</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="30" t="str">
+        <f>_cJU4qStc9QT</f>
+        <v>Timor-Leste</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="30" t="str">
+        <f>_WtcZBCTspgM</f>
+        <v>Togo</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="30" t="str">
+        <f>_VMqDEughMuP</f>
+        <v>Tokelau</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="30" t="str">
+        <f>_zYQqFxQw5jj</f>
+        <v>Tonga</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="30" t="str">
+        <f>_fYeClLy8K2x</f>
+        <v>Trinidad and Tobago</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="30" t="str">
+        <f>_pMukkUmnnkh</f>
+        <v>Tunisia</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="30" t="str">
+        <f>_eVEK7djdWqV</f>
+        <v>Turkey</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="30" t="str">
+        <f>_HwqfuL9pQz5</f>
+        <v>Turkmenistan</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="30" t="str">
+        <f>_vg4b11FL2Gl</f>
+        <v>Turks and Caicos Islands</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="30" t="str">
+        <f>_GrU8zQv510v</f>
+        <v>Tuvalu</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="30" t="str">
+        <f>_M9HrCkIwaKy</f>
+        <v>US Virgin Islands</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="30" t="str">
+        <f>_wFkq5oB0dFS</f>
+        <v>USSR, Former</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="30" t="str">
+        <f>_SnYHrnchKjL</f>
+        <v>Uganda</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="30" t="str">
+        <f>_VJrTuNXAg9G</f>
+        <v>Ukraine</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="30" t="str">
+        <f>_aNIrqpwcKXv</f>
+        <v>United Arab Emirates</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="30" t="str">
+        <f>_Gnz4lqrVEMf</f>
+        <v>United Kingdom of Great Britain and Northern Irela</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="30" t="str">
+        <f>_TpDwlm2Spev</f>
+        <v>United Kingdom, England and Wales</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="30" t="str">
+        <f>_Q8De2VxoKXS</f>
+        <v>United Kingdom, Northern Ireland</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="30" t="str">
+        <f>_Gvox4WmLiYC</f>
+        <v>United Kingdom, Scotland</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="30" t="str">
+        <f>_S52uSY3lb8V</f>
+        <v>United Republic of Tanzania</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="30" t="str">
+        <f>_KOUhvjWIy6V</f>
+        <v>United States Minor Outlying Islands</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="30" t="str">
+        <f>_AYWCbVecRKQ</f>
+        <v>United States of America</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="30" t="str">
+        <f>_PJS910L8KtX</f>
+        <v>Uruguay</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="30" t="str">
+        <f>_kpFgAwwSjCZ</f>
+        <v>Uzbekistan</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="30" t="str">
+        <f>_xqjIL1cGrl1</f>
+        <v>Vanuatu</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="30" t="str">
+        <f>_fkrzFaeuYDn</f>
+        <v>Venezuela (Bolivarian Republic of)</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="30" t="str">
+        <f>_av3fkpFxEXj</f>
+        <v>Viet Nam</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="30" t="str">
+        <f>_eVp1pvRfPKS</f>
+        <v>Wallis and Futuna</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="30" t="str">
+        <f>_KrU8C1YTdao</f>
+        <v>West Bank</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="30" t="str">
+        <f>_juBxu3AprlM</f>
+        <v>West Bank and Gaza Strip</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="30" t="str">
+        <f>_PvrMV4NjbtR</f>
+        <v>Western Sahara</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="30" t="str">
+        <f>_HX7fBSMCCbL</f>
+        <v>Yemen</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="30" t="str">
+        <f>_fIlPGTXBCUm</f>
+        <v>Yugoslavia, Former</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="30" t="str">
+        <f>_gb7vWtO7Wjp</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="30" t="str">
+        <f>_buSEeeViTo3</f>
+        <v>Zimbabwe</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="30" t="str">
+        <f>_Adzexk8xbzD</f>
+        <v>Åland Islands</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="4K0uBpuzkpEIOel8hkjHvIcSg7ZltWH24ftFKH3dscdVevfqkW8mG02DrsL+hSjRVsawRoTB9RipfyXIWCKyQg==" saltValue="LMmyEC019G4Cee2jQgyrqw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF5C501-FCBD-4087-8BA6-EE825BC68056}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:F311"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.28515625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="80" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="12.5703125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>936</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>935</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>934</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>933</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>931</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>930</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>929</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>928</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>927</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>926</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>925</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>924</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>922</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>921</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>920</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>919</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>918</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>917</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>916</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>915</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>914</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>913</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>912</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>911</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>910</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>909</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>908</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>907</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>906</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>905</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>904</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>903</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>902</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>901</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>900</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>899</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>898</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>897</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>896</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>894</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>893</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>888</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>886</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>887</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>886</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>885</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>882</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>883</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>882</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>881</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>880</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>878</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>877</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>875</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>873</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>870</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>866</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>862</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>857</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>855</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>853</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
+        <v>851</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
+        <v>849</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
+        <v>847</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>846</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
+        <v>693</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="30" t="s">
+        <v>673</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="30" t="s">
+        <v>696</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="30" t="s">
+        <v>698</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="30" t="s">
+        <v>701</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="30" t="s">
+        <v>774</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="30" t="s">
+        <v>703</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="30" t="s">
+        <v>705</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C126" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C131" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="B132" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C132" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C133" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C134" s="30" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="B135" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C135" s="30" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="B138" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C138" s="30" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="B139" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C139" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="B140" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="B141" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C141" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="B142" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="B143" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="B144" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C144" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="B145" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B146" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C147" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="B149" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C150" s="30" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="B153" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C153" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="B154" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="30" t="s">
+        <v>677</v>
+      </c>
+      <c r="B155" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C155" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="30" t="s">
+        <v>679</v>
+      </c>
+      <c r="B156" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C156" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="B158" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="B159" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="B160" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C160" s="30" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="B161" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C161" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="B162" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C162" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="B163" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="30" t="s">
+        <v>707</v>
+      </c>
+      <c r="B164" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="30" t="s">
+        <v>802</v>
+      </c>
+      <c r="B165" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C165" s="30" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="B166" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C166" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="B167" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C167" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B168" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C168" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="30" t="s">
+        <v>709</v>
+      </c>
+      <c r="B169" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C169" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B170" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C170" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="B171" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C171" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="30" t="s">
+        <v>711</v>
+      </c>
+      <c r="B172" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C172" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="B173" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C173" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B174" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C174" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="B175" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C175" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B176" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C176" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="B177" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C177" s="30" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="B178" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C178" s="30" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="B179" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C179" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="B180" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C180" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B181" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C181" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B182" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C182" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="B183" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C183" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="30" t="s">
+        <v>681</v>
+      </c>
+      <c r="B184" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C184" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="B185" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C185" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="B186" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C186" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="30" t="s">
+        <v>715</v>
+      </c>
+      <c r="B187" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C187" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="B188" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C188" s="30" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B189" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C189" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="B190" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C190" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="B191" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C191" s="30" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="B192" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C192" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="30" t="s">
+        <v>717</v>
+      </c>
+      <c r="B193" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C193" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="B194" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C194" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="B195" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C195" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="B196" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C196" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="B197" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C197" s="30" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="B198" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C198" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B199" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C199" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="30" t="s">
+        <v>683</v>
+      </c>
+      <c r="B200" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C200" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B201" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C201" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="30" t="s">
+        <v>721</v>
+      </c>
+      <c r="B202" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C202" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="30" t="s">
+        <v>685</v>
+      </c>
+      <c r="B203" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C203" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="B204" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C204" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="B205" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C205" s="30" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="B206" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C206" s="30" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="30" t="s">
+        <v>723</v>
+      </c>
+      <c r="B207" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C207" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="B208" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C208" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B209" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C209" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B210" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C210" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="30" t="s">
+        <v>725</v>
+      </c>
+      <c r="B211" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C211" s="30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="B212" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C212" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="B213" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C213" s="30" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="B214" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C214" s="30" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="B215" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C215" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="B216" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C216" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="B217" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C217" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="B218" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C218" s="30" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="B219" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C219" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="B220" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C220" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="B221" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C221" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="B222" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C222" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="30" t="s">
+        <v>732</v>
+      </c>
+      <c r="B223" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C223" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="30" t="s">
+        <v>612</v>
+      </c>
+      <c r="B224" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C224" s="30" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="B225" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C225" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="B226" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C226" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="B227" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C227" s="30" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="B228" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C228" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="B229" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C229" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B230" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C230" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="B231" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C231" s="30" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="B232" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C232" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="B233" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C233" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="B234" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C234" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="B235" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C235" s="30" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="B236" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C236" s="30" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="30" t="s">
+        <v>808</v>
+      </c>
+      <c r="B237" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C237" s="30" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="B238" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C238" s="30" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="B239" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C239" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="B240" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C240" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="B241" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C241" s="30" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="B242" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C242" s="30" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="B243" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C243" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="B244" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C244" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="B245" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C245" s="30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="B246" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C246" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="B247" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C247" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="B248" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C248" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="B249" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C249" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="30" t="s">
+        <v>632</v>
+      </c>
+      <c r="B250" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C250" s="30" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="B251" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C251" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B252" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C252" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="B253" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C253" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="B254" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C254" s="30" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="B255" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C255" s="30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="B256" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C256" s="30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="B257" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C257" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="B258" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C258" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="B259" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C259" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="B260" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C260" s="30" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="B261" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C261" s="30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="B262" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C262" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="B263" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C263" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="B264" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C264" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="B265" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C265" s="30" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="B266" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C266" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="B267" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C267" s="30" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="B268" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C268" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="B269" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C269" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="B270" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C270" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="B271" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C271" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="30" t="s">
+        <v>689</v>
+      </c>
+      <c r="B272" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C272" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="B273" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C273" s="30" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="30" t="s">
+        <v>691</v>
+      </c>
+      <c r="B274" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C274" s="30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B275" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C275" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="30" t="s">
+        <v>644</v>
+      </c>
+      <c r="B276" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C276" s="30" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="30" t="s">
+        <v>742</v>
+      </c>
+      <c r="B277" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C277" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="B278" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C278" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="B279" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C279" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="B280" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C280" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="B281" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C281" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="30" t="s">
+        <v>647</v>
+      </c>
+      <c r="B282" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C282" s="30" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="30" t="s">
+        <v>744</v>
+      </c>
+      <c r="B283" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C283" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="B284" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C284" s="30" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="B285" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C285" s="30" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="B286" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C286" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="B287" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C287" s="30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="B288" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C288" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="B289" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C289" s="30" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="30" t="s">
+        <v>650</v>
+      </c>
+      <c r="B290" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C290" s="30" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="30" t="s">
+        <v>653</v>
+      </c>
+      <c r="B291" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C291" s="30" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="30" t="s">
+        <v>656</v>
+      </c>
+      <c r="B292" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C292" s="30" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="B293" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C293" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="30" t="s">
+        <v>822</v>
+      </c>
+      <c r="B294" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C294" s="30" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="B295" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C295" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B296" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C296" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="B297" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C297" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="B298" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C298" s="30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B299" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C299" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="B300" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C300" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="B301" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C301" s="30" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="B302" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C302" s="30" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="B303" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C303" s="30" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="B304" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C304" s="30" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="B305" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C305" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="B306" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C306" s="30" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B307" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C307" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="B308" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C308" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="B309" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C309" s="30" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="30" t="s">
+        <v>842</v>
+      </c>
+      <c r="B310" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="C310" s="30" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="B311" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="C311" s="30" t="s">
+        <v>838</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="B/lacVTOrpEcwWRu1JuKmXxvXMsPUwIkZIt7bst2dq0nIs45RwqaufME6twfZPKTLR6hvMBy6gk06EMQ6G3/uA==" saltValue="XAUXF5J6d0/FRW5/i3iPAg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <mergeCells count="6">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/templates/NHWA_Module_5.xlsx
+++ b/public/templates/NHWA_Module_5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Final friday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16000429-239F-4947-A907-92A3555BECEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E850FD8B-16AD-46DF-A0BE-41C2930781BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="/y4ghdQw5zDY5X50A28ptgXKUL+3gINxHaPzRAT3UvCy3Mhtj2Nn1XnCn3ZsJhxSGmva6EifantWL4pkil1V9Q==" workbookSaltValue="Ce2toa42FyzKbcOufOQKlA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -3463,12 +3463,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3476,6 +3470,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -3860,8 +3860,8 @@
     <col min="21" max="21" width="12" style="4" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="12.140625" style="4" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="24" max="35" width="9.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="24" max="34" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="35" max="36" width="9.140625" style="4" customWidth="1"/>
     <col min="37" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -4015,8 +4015,8 @@
       <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
       <c r="G4" s="26" t="s">
         <v>1</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>Bahamas</v>
       </c>
     </row>
-    <row r="17" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="16:33" x14ac:dyDescent="0.25">
       <c r="AA17" s="28" t="s">
         <v>89</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>Bahrain</v>
       </c>
     </row>
-    <row r="18" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="16:33" x14ac:dyDescent="0.25">
       <c r="AA18" s="28" t="s">
         <v>158</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>Bangladesh</v>
       </c>
     </row>
-    <row r="19" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="16:33" x14ac:dyDescent="0.25">
       <c r="AA19" s="28" t="s">
         <v>56</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>Barbados</v>
       </c>
     </row>
-    <row r="20" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="16:33" x14ac:dyDescent="0.25">
       <c r="AA20" s="28" t="s">
         <v>113</v>
       </c>
@@ -4713,7 +4713,11 @@
         <v>Belarus</v>
       </c>
     </row>
-    <row r="21" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P21" s="4">
+        <f t="shared" ref="P21:P26" ca="1" si="2">P22+1</f>
+        <v>2020</v>
+      </c>
       <c r="AA21" s="28" t="s">
         <v>114</v>
       </c>
@@ -4739,7 +4743,11 @@
         <v>Belgium</v>
       </c>
     </row>
-    <row r="22" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P22" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2019</v>
+      </c>
       <c r="AA22" s="28" t="s">
         <v>57</v>
       </c>
@@ -4765,7 +4773,11 @@
         <v>Belize</v>
       </c>
     </row>
-    <row r="23" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P23" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2018</v>
+      </c>
       <c r="AA23" s="28" t="s">
         <v>14</v>
       </c>
@@ -4791,7 +4803,11 @@
         <v>Benin</v>
       </c>
     </row>
-    <row r="24" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P24" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2017</v>
+      </c>
       <c r="AA24" s="28" t="s">
         <v>531</v>
       </c>
@@ -4817,7 +4833,11 @@
         <v>Bermuda</v>
       </c>
     </row>
-    <row r="25" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P25" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2016</v>
+      </c>
       <c r="AA25" s="28" t="s">
         <v>159</v>
       </c>
@@ -4843,7 +4863,11 @@
         <v>Bhutan</v>
       </c>
     </row>
-    <row r="26" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P26" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2015</v>
+      </c>
       <c r="AA26" s="28" t="s">
         <v>58</v>
       </c>
@@ -4869,7 +4893,11 @@
         <v>Bolivia (Plurinational State of)</v>
       </c>
     </row>
-    <row r="27" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P27" s="4">
+        <f t="shared" ref="P27:P38" ca="1" si="3">P28+1</f>
+        <v>2014</v>
+      </c>
       <c r="AA27" s="28" t="s">
         <v>534</v>
       </c>
@@ -4895,7 +4923,11 @@
         <v>Bonaire, Saint Eustatius and Saba</v>
       </c>
     </row>
-    <row r="28" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P28" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2013</v>
+      </c>
       <c r="AA28" s="28" t="s">
         <v>115</v>
       </c>
@@ -4921,7 +4953,11 @@
         <v>Bosnia and Herzegovina</v>
       </c>
     </row>
-    <row r="29" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P29" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2012</v>
+      </c>
       <c r="AA29" s="28" t="s">
         <v>16</v>
       </c>
@@ -4947,7 +4983,11 @@
         <v>Botswana</v>
       </c>
     </row>
-    <row r="30" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P30" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2011</v>
+      </c>
       <c r="AA30" s="28" t="s">
         <v>765</v>
       </c>
@@ -4973,7 +5013,11 @@
         <v>Bouvet Island</v>
       </c>
     </row>
-    <row r="31" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P31" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2010</v>
+      </c>
       <c r="AA31" s="28" t="s">
         <v>59</v>
       </c>
@@ -4999,7 +5043,11 @@
         <v>Brazil</v>
       </c>
     </row>
-    <row r="32" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P32" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2009</v>
+      </c>
       <c r="AA32" s="28" t="s">
         <v>768</v>
       </c>
@@ -5025,7 +5073,11 @@
         <v>British Indian Ocean Territory</v>
       </c>
     </row>
-    <row r="33" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P33" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2008</v>
+      </c>
       <c r="AA33" s="28" t="s">
         <v>537</v>
       </c>
@@ -5051,7 +5103,11 @@
         <v>British Virgin Islands</v>
       </c>
     </row>
-    <row r="34" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P34" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2007</v>
+      </c>
       <c r="AA34" s="28" t="s">
         <v>170</v>
       </c>
@@ -5077,7 +5133,11 @@
         <v>Brunei Darussalam</v>
       </c>
     </row>
-    <row r="35" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P35" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2006</v>
+      </c>
       <c r="AA35" s="28" t="s">
         <v>116</v>
       </c>
@@ -5103,7 +5163,11 @@
         <v>Bulgaria</v>
       </c>
     </row>
-    <row r="36" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P36" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2005</v>
+      </c>
       <c r="AA36" s="28" t="s">
         <v>17</v>
       </c>
@@ -5129,7 +5193,11 @@
         <v>Burkina Faso</v>
       </c>
     </row>
-    <row r="37" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P37" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2004</v>
+      </c>
       <c r="AA37" s="28" t="s">
         <v>18</v>
       </c>
@@ -5155,7 +5223,11 @@
         <v>Burundi</v>
       </c>
     </row>
-    <row r="38" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P38" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2003</v>
+      </c>
       <c r="AA38" s="28" t="s">
         <v>210</v>
       </c>
@@ -5181,7 +5253,11 @@
         <v>Cabo Verde</v>
       </c>
     </row>
-    <row r="39" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P39" s="4">
+        <f ca="1">P40+1</f>
+        <v>2002</v>
+      </c>
       <c r="AA39" s="28" t="s">
         <v>171</v>
       </c>
@@ -5207,7 +5283,11 @@
         <v>Cambodia</v>
       </c>
     </row>
-    <row r="40" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P40" s="4">
+        <f ca="1">YEAR(TODAY())-20</f>
+        <v>2001</v>
+      </c>
       <c r="AA40" s="28" t="s">
         <v>19</v>
       </c>
@@ -5233,7 +5313,7 @@
         <v>Cameroon</v>
       </c>
     </row>
-    <row r="41" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="16:33" x14ac:dyDescent="0.25">
       <c r="AA41" s="28" t="s">
         <v>60</v>
       </c>
@@ -5259,7 +5339,7 @@
         <v>Canada</v>
       </c>
     </row>
-    <row r="42" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="16:33" x14ac:dyDescent="0.25">
       <c r="AA42" s="28" t="s">
         <v>540</v>
       </c>
@@ -5285,7 +5365,7 @@
         <v>Cayman Islands</v>
       </c>
     </row>
-    <row r="43" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="16:33" x14ac:dyDescent="0.25">
       <c r="AA43" s="28" t="s">
         <v>20</v>
       </c>
@@ -5311,7 +5391,7 @@
         <v>Central African Republic</v>
       </c>
     </row>
-    <row r="44" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="16:33" x14ac:dyDescent="0.25">
       <c r="AA44" s="28" t="s">
         <v>21</v>
       </c>
@@ -5337,7 +5417,7 @@
         <v>Chad</v>
       </c>
     </row>
-    <row r="45" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="16:33" x14ac:dyDescent="0.25">
       <c r="AA45" s="28" t="s">
         <v>61</v>
       </c>
@@ -5363,7 +5443,7 @@
         <v>Chile</v>
       </c>
     </row>
-    <row r="46" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="16:33" x14ac:dyDescent="0.25">
       <c r="AA46" s="28" t="s">
         <v>700</v>
       </c>
@@ -5389,7 +5469,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="47" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="16:33" x14ac:dyDescent="0.25">
       <c r="AA47" s="28" t="s">
         <v>771</v>
       </c>
@@ -5415,7 +5495,7 @@
         <v>China, Hong Kong SAR</v>
       </c>
     </row>
-    <row r="48" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="16:33" x14ac:dyDescent="0.25">
       <c r="AA48" s="28" t="s">
         <v>772</v>
       </c>
@@ -5996,7 +6076,7 @@
         <v>416</v>
       </c>
       <c r="AE67" s="4">
-        <f t="shared" ref="AE67:AE130" si="2">--ISNUMBER(IFERROR(SEARCH($X$1,AA67,1),""))</f>
+        <f t="shared" ref="AE67:AE130" si="4">--ISNUMBER(IFERROR(SEARCH($X$1,AA67,1),""))</f>
         <v>1</v>
       </c>
       <c r="AF67" s="4">
@@ -6022,7 +6102,7 @@
         <v>370</v>
       </c>
       <c r="AE68" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF68" s="4">
@@ -6048,7 +6128,7 @@
         <v>298</v>
       </c>
       <c r="AE69" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF69" s="4">
@@ -6074,7 +6154,7 @@
         <v>298</v>
       </c>
       <c r="AE70" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF70" s="4">
@@ -6100,7 +6180,7 @@
         <v>298</v>
       </c>
       <c r="AE71" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF71" s="4">
@@ -6126,7 +6206,7 @@
         <v>370</v>
       </c>
       <c r="AE72" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF72" s="4">
@@ -6152,7 +6232,7 @@
         <v>298</v>
       </c>
       <c r="AE73" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF73" s="4">
@@ -6178,7 +6258,7 @@
         <v>200</v>
       </c>
       <c r="AE74" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF74" s="4">
@@ -6204,7 +6284,7 @@
         <v>200</v>
       </c>
       <c r="AE75" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF75" s="4">
@@ -6230,7 +6310,7 @@
         <v>416</v>
       </c>
       <c r="AE76" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF76" s="4">
@@ -6256,7 +6336,7 @@
         <v>200</v>
       </c>
       <c r="AE77" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF77" s="4">
@@ -6282,7 +6362,7 @@
         <v>200</v>
       </c>
       <c r="AE78" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF78" s="4">
@@ -6308,7 +6388,7 @@
         <v>524</v>
       </c>
       <c r="AE79" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF79" s="4">
@@ -6334,7 +6414,7 @@
         <v>524</v>
       </c>
       <c r="AE80" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF80" s="4">
@@ -6360,7 +6440,7 @@
         <v>695</v>
       </c>
       <c r="AE81" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF81" s="4">
@@ -6386,7 +6466,7 @@
         <v>416</v>
       </c>
       <c r="AE82" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF82" s="4">
@@ -6412,7 +6492,7 @@
         <v>416</v>
       </c>
       <c r="AE83" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF83" s="4">
@@ -6438,7 +6518,7 @@
         <v>524</v>
       </c>
       <c r="AE84" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF84" s="4">
@@ -6464,7 +6544,7 @@
         <v>695</v>
       </c>
       <c r="AE85" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF85" s="4">
@@ -6490,7 +6570,7 @@
         <v>524</v>
       </c>
       <c r="AE86" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF86" s="4">
@@ -6516,7 +6596,7 @@
         <v>200</v>
       </c>
       <c r="AE87" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF87" s="4">
@@ -6542,7 +6622,7 @@
         <v>200</v>
       </c>
       <c r="AE88" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF88" s="4">
@@ -6568,7 +6648,7 @@
         <v>416</v>
       </c>
       <c r="AE89" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF89" s="4">
@@ -6594,7 +6674,7 @@
         <v>416</v>
       </c>
       <c r="AE90" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF90" s="4">
@@ -6620,7 +6700,7 @@
         <v>524</v>
       </c>
       <c r="AE91" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF91" s="4">
@@ -6646,7 +6726,7 @@
         <v>524</v>
       </c>
       <c r="AE92" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF92" s="4">
@@ -6672,7 +6752,7 @@
         <v>524</v>
       </c>
       <c r="AE93" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF93" s="4">
@@ -6698,7 +6778,7 @@
         <v>200</v>
       </c>
       <c r="AE94" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF94" s="4">
@@ -6724,7 +6804,7 @@
         <v>524</v>
       </c>
       <c r="AE95" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF95" s="4">
@@ -6750,7 +6830,7 @@
         <v>416</v>
       </c>
       <c r="AE96" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF96" s="4">
@@ -6776,7 +6856,7 @@
         <v>416</v>
       </c>
       <c r="AE97" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF97" s="4">
@@ -6802,7 +6882,7 @@
         <v>298</v>
       </c>
       <c r="AE98" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF98" s="4">
@@ -6828,7 +6908,7 @@
         <v>524</v>
       </c>
       <c r="AE99" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF99" s="4">
@@ -6854,7 +6934,7 @@
         <v>695</v>
       </c>
       <c r="AE100" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF100" s="4">
@@ -6880,7 +6960,7 @@
         <v>298</v>
       </c>
       <c r="AE101" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF101" s="4">
@@ -6906,7 +6986,7 @@
         <v>524</v>
       </c>
       <c r="AE102" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF102" s="4">
@@ -6932,7 +7012,7 @@
         <v>200</v>
       </c>
       <c r="AE103" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF103" s="4">
@@ -6958,7 +7038,7 @@
         <v>200</v>
       </c>
       <c r="AE104" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF104" s="4">
@@ -6984,7 +7064,7 @@
         <v>298</v>
       </c>
       <c r="AE105" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF105" s="4">
@@ -7010,7 +7090,7 @@
         <v>298</v>
       </c>
       <c r="AE106" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF106" s="4">
@@ -7036,7 +7116,7 @@
         <v>524</v>
       </c>
       <c r="AE107" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF107" s="4">
@@ -7062,7 +7142,7 @@
         <v>524</v>
       </c>
       <c r="AE108" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF108" s="4">
@@ -7088,7 +7168,7 @@
         <v>298</v>
       </c>
       <c r="AE109" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF109" s="4">
@@ -7114,7 +7194,7 @@
         <v>416</v>
       </c>
       <c r="AE110" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF110" s="4">
@@ -7140,7 +7220,7 @@
         <v>416</v>
       </c>
       <c r="AE111" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF111" s="4">
@@ -7166,7 +7246,7 @@
         <v>672</v>
       </c>
       <c r="AE112" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF112" s="4">
@@ -7192,7 +7272,7 @@
         <v>672</v>
       </c>
       <c r="AE113" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF113" s="4">
@@ -7218,7 +7298,7 @@
         <v>370</v>
       </c>
       <c r="AE114" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF114" s="4">
@@ -7244,7 +7324,7 @@
         <v>370</v>
       </c>
       <c r="AE115" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF115" s="4">
@@ -7270,7 +7350,7 @@
         <v>416</v>
       </c>
       <c r="AE116" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF116" s="4">
@@ -7296,7 +7376,7 @@
         <v>524</v>
       </c>
       <c r="AE117" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF117" s="4">
@@ -7322,7 +7402,7 @@
         <v>416</v>
       </c>
       <c r="AE118" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF118" s="4">
@@ -7348,7 +7428,7 @@
         <v>416</v>
       </c>
       <c r="AE119" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF119" s="4">
@@ -7374,7 +7454,7 @@
         <v>298</v>
       </c>
       <c r="AE120" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF120" s="4">
@@ -7400,7 +7480,7 @@
         <v>695</v>
       </c>
       <c r="AE121" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF121" s="4">
@@ -7426,7 +7506,7 @@
         <v>524</v>
       </c>
       <c r="AE122" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF122" s="4">
@@ -7452,7 +7532,7 @@
         <v>370</v>
       </c>
       <c r="AE123" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF123" s="4">
@@ -7478,7 +7558,7 @@
         <v>416</v>
       </c>
       <c r="AE124" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF124" s="4">
@@ -7504,7 +7584,7 @@
         <v>200</v>
       </c>
       <c r="AE125" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF125" s="4">
@@ -7530,7 +7610,7 @@
         <v>695</v>
       </c>
       <c r="AE126" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF126" s="4">
@@ -7556,7 +7636,7 @@
         <v>370</v>
       </c>
       <c r="AE127" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF127" s="4">
@@ -7582,7 +7662,7 @@
         <v>416</v>
       </c>
       <c r="AE128" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF128" s="4">
@@ -7608,7 +7688,7 @@
         <v>695</v>
       </c>
       <c r="AE129" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF129" s="4">
@@ -7634,7 +7714,7 @@
         <v>416</v>
       </c>
       <c r="AE130" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF130" s="4">
@@ -7660,7 +7740,7 @@
         <v>370</v>
       </c>
       <c r="AE131" s="4">
-        <f t="shared" ref="AE131:AE194" si="3">--ISNUMBER(IFERROR(SEARCH($X$1,AA131,1),""))</f>
+        <f t="shared" ref="AE131:AE194" si="5">--ISNUMBER(IFERROR(SEARCH($X$1,AA131,1),""))</f>
         <v>1</v>
       </c>
       <c r="AF131" s="4">
@@ -7686,7 +7766,7 @@
         <v>200</v>
       </c>
       <c r="AE132" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF132" s="4">
@@ -7712,7 +7792,7 @@
         <v>200</v>
       </c>
       <c r="AE133" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF133" s="4">
@@ -7738,7 +7818,7 @@
         <v>370</v>
       </c>
       <c r="AE134" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF134" s="4">
@@ -7764,7 +7844,7 @@
         <v>524</v>
       </c>
       <c r="AE135" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF135" s="4">
@@ -7790,7 +7870,7 @@
         <v>416</v>
       </c>
       <c r="AE136" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF136" s="4">
@@ -7816,7 +7896,7 @@
         <v>416</v>
       </c>
       <c r="AE137" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF137" s="4">
@@ -7842,7 +7922,7 @@
         <v>200</v>
       </c>
       <c r="AE138" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF138" s="4">
@@ -7868,7 +7948,7 @@
         <v>200</v>
       </c>
       <c r="AE139" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF139" s="4">
@@ -7894,7 +7974,7 @@
         <v>695</v>
       </c>
       <c r="AE140" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF140" s="4">
@@ -7920,7 +8000,7 @@
         <v>672</v>
       </c>
       <c r="AE141" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF141" s="4">
@@ -7946,7 +8026,7 @@
         <v>200</v>
       </c>
       <c r="AE142" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF142" s="4">
@@ -7972,7 +8052,7 @@
         <v>416</v>
       </c>
       <c r="AE143" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF143" s="4">
@@ -7998,7 +8078,7 @@
         <v>695</v>
       </c>
       <c r="AE144" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF144" s="4">
@@ -8024,7 +8104,7 @@
         <v>524</v>
       </c>
       <c r="AE145" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF145" s="4">
@@ -8050,7 +8130,7 @@
         <v>200</v>
       </c>
       <c r="AE146" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF146" s="4">
@@ -8076,7 +8156,7 @@
         <v>200</v>
       </c>
       <c r="AE147" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF147" s="4">
@@ -8102,7 +8182,7 @@
         <v>524</v>
       </c>
       <c r="AE148" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF148" s="4">
@@ -8128,7 +8208,7 @@
         <v>298</v>
       </c>
       <c r="AE149" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF149" s="4">
@@ -8154,7 +8234,7 @@
         <v>695</v>
       </c>
       <c r="AE150" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF150" s="4">
@@ -8180,7 +8260,7 @@
         <v>416</v>
       </c>
       <c r="AE151" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF151" s="4">
@@ -8206,7 +8286,7 @@
         <v>695</v>
       </c>
       <c r="AE152" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF152" s="4">
@@ -8232,7 +8312,7 @@
         <v>416</v>
       </c>
       <c r="AE153" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF153" s="4">
@@ -8258,7 +8338,7 @@
         <v>298</v>
       </c>
       <c r="AE154" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF154" s="4">
@@ -8284,7 +8364,7 @@
         <v>370</v>
       </c>
       <c r="AE155" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF155" s="4">
@@ -8310,7 +8390,7 @@
         <v>200</v>
       </c>
       <c r="AE156" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF156" s="4">
@@ -8336,7 +8416,7 @@
         <v>672</v>
       </c>
       <c r="AE157" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF157" s="4">
@@ -8362,7 +8442,7 @@
         <v>200</v>
       </c>
       <c r="AE158" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF158" s="4">
@@ -8388,7 +8468,7 @@
         <v>695</v>
       </c>
       <c r="AE159" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF159" s="4">
@@ -8414,7 +8494,7 @@
         <v>672</v>
       </c>
       <c r="AE160" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF160" s="4">
@@ -8440,7 +8520,7 @@
         <v>416</v>
       </c>
       <c r="AE161" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF161" s="4">
@@ -8466,7 +8546,7 @@
         <v>524</v>
       </c>
       <c r="AE162" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF162" s="4">
@@ -8492,7 +8572,7 @@
         <v>695</v>
       </c>
       <c r="AE163" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF163" s="4">
@@ -8518,7 +8598,7 @@
         <v>695</v>
       </c>
       <c r="AE164" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF164" s="4">
@@ -8544,7 +8624,7 @@
         <v>298</v>
       </c>
       <c r="AE165" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF165" s="4">
@@ -8570,7 +8650,7 @@
         <v>200</v>
       </c>
       <c r="AE166" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF166" s="4">
@@ -8596,7 +8676,7 @@
         <v>200</v>
       </c>
       <c r="AE167" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF167" s="4">
@@ -8622,7 +8702,7 @@
         <v>695</v>
       </c>
       <c r="AE168" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF168" s="4">
@@ -8648,7 +8728,7 @@
         <v>524</v>
       </c>
       <c r="AE169" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF169" s="4">
@@ -8674,7 +8754,7 @@
         <v>416</v>
       </c>
       <c r="AE170" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF170" s="4">
@@ -8700,7 +8780,7 @@
         <v>695</v>
       </c>
       <c r="AE171" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF171" s="4">
@@ -8726,7 +8806,7 @@
         <v>416</v>
       </c>
       <c r="AE172" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF172" s="4">
@@ -8752,7 +8832,7 @@
         <v>370</v>
       </c>
       <c r="AE173" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF173" s="4">
@@ -8778,7 +8858,7 @@
         <v>370</v>
       </c>
       <c r="AE174" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF174" s="4">
@@ -8804,7 +8884,7 @@
         <v>695</v>
       </c>
       <c r="AE175" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF175" s="4">
@@ -8830,7 +8910,7 @@
         <v>298</v>
       </c>
       <c r="AE176" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF176" s="4">
@@ -8856,7 +8936,7 @@
         <v>695</v>
       </c>
       <c r="AE177" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF177" s="4">
@@ -8882,7 +8962,7 @@
         <v>298</v>
       </c>
       <c r="AE178" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF178" s="4">
@@ -8908,7 +8988,7 @@
         <v>298</v>
       </c>
       <c r="AE179" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF179" s="4">
@@ -8934,7 +9014,7 @@
         <v>695</v>
       </c>
       <c r="AE180" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF180" s="4">
@@ -8960,7 +9040,7 @@
         <v>524</v>
       </c>
       <c r="AE181" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF181" s="4">
@@ -8986,7 +9066,7 @@
         <v>416</v>
       </c>
       <c r="AE182" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF182" s="4">
@@ -9012,7 +9092,7 @@
         <v>416</v>
       </c>
       <c r="AE183" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF183" s="4">
@@ -9038,7 +9118,7 @@
         <v>298</v>
       </c>
       <c r="AE184" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF184" s="4">
@@ -9064,7 +9144,7 @@
         <v>370</v>
       </c>
       <c r="AE185" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF185" s="4">
@@ -9090,7 +9170,7 @@
         <v>695</v>
       </c>
       <c r="AE186" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF186" s="4">
@@ -9116,7 +9196,7 @@
         <v>416</v>
       </c>
       <c r="AE187" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF187" s="4">
@@ -9142,7 +9222,7 @@
         <v>524</v>
       </c>
       <c r="AE188" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF188" s="4">
@@ -9168,7 +9248,7 @@
         <v>416</v>
       </c>
       <c r="AE189" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF189" s="4">
@@ -9194,7 +9274,7 @@
         <v>416</v>
       </c>
       <c r="AE190" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF190" s="4">
@@ -9220,7 +9300,7 @@
         <v>200</v>
       </c>
       <c r="AE191" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF191" s="4">
@@ -9246,7 +9326,7 @@
         <v>524</v>
       </c>
       <c r="AE192" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF192" s="4">
@@ -9272,7 +9352,7 @@
         <v>524</v>
       </c>
       <c r="AE193" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF193" s="4">
@@ -9298,7 +9378,7 @@
         <v>524</v>
       </c>
       <c r="AE194" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF194" s="4">
@@ -9324,7 +9404,7 @@
         <v>524</v>
       </c>
       <c r="AE195" s="4">
-        <f t="shared" ref="AE195:AE258" si="4">--ISNUMBER(IFERROR(SEARCH($X$1,AA195,1),""))</f>
+        <f t="shared" ref="AE195:AE258" si="6">--ISNUMBER(IFERROR(SEARCH($X$1,AA195,1),""))</f>
         <v>1</v>
       </c>
       <c r="AF195" s="4">
@@ -9350,7 +9430,7 @@
         <v>298</v>
       </c>
       <c r="AE196" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF196" s="4">
@@ -9376,7 +9456,7 @@
         <v>298</v>
       </c>
       <c r="AE197" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF197" s="4">
@@ -9402,7 +9482,7 @@
         <v>524</v>
       </c>
       <c r="AE198" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF198" s="4">
@@ -9428,7 +9508,7 @@
         <v>524</v>
       </c>
       <c r="AE199" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF199" s="4">
@@ -9454,7 +9534,7 @@
         <v>298</v>
       </c>
       <c r="AE200" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF200" s="4">
@@ -9480,7 +9560,7 @@
         <v>695</v>
       </c>
       <c r="AE201" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF201" s="4">
@@ -9506,7 +9586,7 @@
         <v>416</v>
       </c>
       <c r="AE202" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF202" s="4">
@@ -9532,7 +9612,7 @@
         <v>200</v>
       </c>
       <c r="AE203" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF203" s="4">
@@ -9558,7 +9638,7 @@
         <v>370</v>
       </c>
       <c r="AE204" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF204" s="4">
@@ -9584,7 +9664,7 @@
         <v>200</v>
       </c>
       <c r="AE205" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF205" s="4">
@@ -9610,7 +9690,7 @@
         <v>416</v>
       </c>
       <c r="AE206" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF206" s="4">
@@ -9636,7 +9716,7 @@
         <v>524</v>
       </c>
       <c r="AE207" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF207" s="4">
@@ -9662,7 +9742,7 @@
         <v>200</v>
       </c>
       <c r="AE208" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF208" s="4">
@@ -9688,7 +9768,7 @@
         <v>200</v>
       </c>
       <c r="AE209" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF209" s="4">
@@ -9714,7 +9794,7 @@
         <v>695</v>
       </c>
       <c r="AE210" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF210" s="4">
@@ -9740,7 +9820,7 @@
         <v>298</v>
       </c>
       <c r="AE211" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF211" s="4">
@@ -9766,7 +9846,7 @@
         <v>416</v>
       </c>
       <c r="AE212" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF212" s="4">
@@ -9792,7 +9872,7 @@
         <v>416</v>
       </c>
       <c r="AE213" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF213" s="4">
@@ -9818,7 +9898,7 @@
         <v>695</v>
       </c>
       <c r="AE214" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF214" s="4">
@@ -9844,7 +9924,7 @@
         <v>370</v>
       </c>
       <c r="AE215" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF215" s="4">
@@ -9870,7 +9950,7 @@
         <v>200</v>
       </c>
       <c r="AE216" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF216" s="4">
@@ -9896,7 +9976,7 @@
         <v>524</v>
       </c>
       <c r="AE217" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF217" s="4">
@@ -9922,7 +10002,7 @@
         <v>200</v>
       </c>
       <c r="AE218" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF218" s="4">
@@ -9948,7 +10028,7 @@
         <v>416</v>
       </c>
       <c r="AE219" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF219" s="4">
@@ -9974,7 +10054,7 @@
         <v>672</v>
       </c>
       <c r="AE220" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF220" s="4">
@@ -10000,7 +10080,7 @@
         <v>370</v>
       </c>
       <c r="AE221" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF221" s="4">
@@ -10026,7 +10106,7 @@
         <v>524</v>
       </c>
       <c r="AE222" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF222" s="4">
@@ -10052,7 +10132,7 @@
         <v>298</v>
       </c>
       <c r="AE223" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF223" s="4">
@@ -10078,7 +10158,7 @@
         <v>524</v>
       </c>
       <c r="AE224" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF224" s="4">
@@ -10104,7 +10184,7 @@
         <v>416</v>
       </c>
       <c r="AE225" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF225" s="4">
@@ -10130,7 +10210,7 @@
         <v>416</v>
       </c>
       <c r="AE226" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF226" s="4">
@@ -10156,7 +10236,7 @@
         <v>370</v>
       </c>
       <c r="AE227" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF227" s="4">
@@ -10182,7 +10262,7 @@
         <v>416</v>
       </c>
       <c r="AE228" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF228" s="4">
@@ -10208,7 +10288,7 @@
         <v>672</v>
       </c>
       <c r="AE229" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF229" s="4">
@@ -10234,7 +10314,7 @@
         <v>524</v>
       </c>
       <c r="AE230" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF230" s="4">
@@ -10260,7 +10340,7 @@
         <v>672</v>
       </c>
       <c r="AE231" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF231" s="4">
@@ -10286,7 +10366,7 @@
         <v>200</v>
       </c>
       <c r="AE232" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF232" s="4">
@@ -10312,7 +10392,7 @@
         <v>695</v>
       </c>
       <c r="AE233" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF233" s="4">
@@ -10338,7 +10418,7 @@
         <v>695</v>
       </c>
       <c r="AE234" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF234" s="4">
@@ -10364,7 +10444,7 @@
         <v>298</v>
       </c>
       <c r="AE235" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF235" s="4">
@@ -10390,7 +10470,7 @@
         <v>370</v>
       </c>
       <c r="AE236" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF236" s="4">
@@ -10416,7 +10496,7 @@
         <v>416</v>
       </c>
       <c r="AE237" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF237" s="4">
@@ -10442,7 +10522,7 @@
         <v>416</v>
       </c>
       <c r="AE238" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF238" s="4">
@@ -10468,7 +10548,7 @@
         <v>298</v>
       </c>
       <c r="AE239" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF239" s="4">
@@ -10494,7 +10574,7 @@
         <v>695</v>
       </c>
       <c r="AE240" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF240" s="4">
@@ -10520,7 +10600,7 @@
         <v>298</v>
       </c>
       <c r="AE241" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF241" s="4">
@@ -10546,7 +10626,7 @@
         <v>524</v>
       </c>
       <c r="AE242" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF242" s="4">
@@ -10572,7 +10652,7 @@
         <v>200</v>
       </c>
       <c r="AE243" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF243" s="4">
@@ -10598,7 +10678,7 @@
         <v>416</v>
       </c>
       <c r="AE244" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF244" s="4">
@@ -10624,7 +10704,7 @@
         <v>370</v>
       </c>
       <c r="AE245" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF245" s="4">
@@ -10650,7 +10730,7 @@
         <v>416</v>
       </c>
       <c r="AE246" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF246" s="4">
@@ -10676,7 +10756,7 @@
         <v>524</v>
       </c>
       <c r="AE247" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF247" s="4">
@@ -10702,7 +10782,7 @@
         <v>524</v>
       </c>
       <c r="AE248" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF248" s="4">
@@ -10728,7 +10808,7 @@
         <v>524</v>
       </c>
       <c r="AE249" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF249" s="4">
@@ -10754,7 +10834,7 @@
         <v>200</v>
       </c>
       <c r="AE250" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF250" s="4">
@@ -10780,7 +10860,7 @@
         <v>524</v>
       </c>
       <c r="AE251" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF251" s="4">
@@ -10806,7 +10886,7 @@
         <v>298</v>
       </c>
       <c r="AE252" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF252" s="4">
@@ -10832,7 +10912,7 @@
         <v>298</v>
       </c>
       <c r="AE253" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF253" s="4">
@@ -10858,7 +10938,7 @@
         <v>416</v>
       </c>
       <c r="AE254" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF254" s="4">
@@ -10884,7 +10964,7 @@
         <v>695</v>
       </c>
       <c r="AE255" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF255" s="4">
@@ -10910,7 +10990,7 @@
         <v>298</v>
       </c>
       <c r="AE256" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF256" s="4">
@@ -10936,7 +11016,7 @@
         <v>695</v>
       </c>
       <c r="AE257" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF257" s="4">
@@ -10962,7 +11042,7 @@
         <v>695</v>
       </c>
       <c r="AE258" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF258" s="4">
@@ -10988,7 +11068,7 @@
         <v>524</v>
       </c>
       <c r="AE259" s="4">
-        <f t="shared" ref="AE259:AE266" si="5">--ISNUMBER(IFERROR(SEARCH($X$1,AA259,1),""))</f>
+        <f t="shared" ref="AE259:AE266" si="7">--ISNUMBER(IFERROR(SEARCH($X$1,AA259,1),""))</f>
         <v>1</v>
       </c>
       <c r="AF259" s="4">
@@ -11014,7 +11094,7 @@
         <v>370</v>
       </c>
       <c r="AE260" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF260" s="4">
@@ -11040,7 +11120,7 @@
         <v>524</v>
       </c>
       <c r="AE261" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF261" s="4">
@@ -11066,7 +11146,7 @@
         <v>370</v>
       </c>
       <c r="AE262" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF262" s="4">
@@ -11092,7 +11172,7 @@
         <v>524</v>
       </c>
       <c r="AE263" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF263" s="4">
@@ -11118,7 +11198,7 @@
         <v>200</v>
       </c>
       <c r="AE264" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF264" s="4">
@@ -11144,7 +11224,7 @@
         <v>200</v>
       </c>
       <c r="AE265" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF265" s="4">
@@ -11170,7 +11250,7 @@
         <v>524</v>
       </c>
       <c r="AE266" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF266" s="4">
@@ -11183,7 +11263,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1SdMdf3VX1U8aG3++weiI9eNikDisOzPaczz5rmswFOjcNhr1oe0ogCDpqTnhDTB8AbN/GiNNUwxKu5ag14fPw==" saltValue="Yyo0Xw7GVJApSOi/IFdOOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qj9zKMplNVmnKq16e2k/8nFD2Gub9WkmD9NI+hwIb8p70SAPPIhGoZQ2Gs2htb9f0o8pYGFCAcjxJzx3lR0GLQ==" saltValue="sdGed8JRx2BIQEdbknxwUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="13">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
@@ -11203,9 +11283,8 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:L15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4" xr:uid="{F94897A3-3B29-4FB5-9680-7178F9F04721}">
-      <formula1>YEAR(TODAY())-20</formula1>
-      <formula2>YEAR(TODAY())-1</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4" xr:uid="{F94897A3-3B29-4FB5-9680-7178F9F04721}">
+      <formula1>$P$21:$P$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11338,10 +11417,10 @@
       <c r="O6" s="12"/>
     </row>
     <row r="7" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="41" t="s">
         <v>750</v>
       </c>
       <c r="D7" s="35" t="s">
@@ -11371,8 +11450,8 @@
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="36"/>
       <c r="E8" s="23" t="s">
         <v>10</v>
@@ -11563,14 +11642,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="str">
+      <c r="A1" s="42" t="str">
         <f>_cxfAcMbSZe1</f>
         <v>NHWA Module 5</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -13225,32 +13304,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>936</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>935</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>934</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="42" t="s">
         <v>933</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="42" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
